--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_SOx.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.002355077410417371</v>
+        <v>0.004526825441580697</v>
       </c>
       <c r="C2">
-        <v>0.0002505</v>
+        <v>0.0004815</v>
       </c>
       <c r="D2">
-        <v>9.764692618930389E-05</v>
+        <v>0.0001876925946512966</v>
       </c>
       <c r="E2">
-        <v>3.564561583964022E-05</v>
+        <v>6.85164232606258E-05</v>
       </c>
       <c r="F2">
-        <v>0.0002347402958495249</v>
+        <v>0.0004512073950161526</v>
       </c>
       <c r="G2">
-        <v>0.0001645751125819537</v>
+        <v>0.0003163389888551326</v>
       </c>
       <c r="H2">
-        <v>2.131863406318257E-05</v>
+        <v>4.09777337382132E-05</v>
       </c>
       <c r="I2">
-        <v>0.003159503994940976</v>
+        <v>0.006073058577102119</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>0.001700458853903333</v>
+        <v>0.003268546659299221</v>
       </c>
       <c r="C3">
-        <v>0.0001878750000000001</v>
+        <v>0.000361125</v>
       </c>
       <c r="D3">
-        <v>8.876993289936715E-05</v>
+        <v>0.0001706296315011787</v>
       </c>
       <c r="E3">
-        <v>1.113925494988757E-05</v>
+        <v>2.141138226894557E-05</v>
       </c>
       <c r="F3">
-        <v>0.0002824219184439595</v>
+        <v>0.000542858897128809</v>
       </c>
       <c r="G3">
-        <v>0.0001366810257036565</v>
+        <v>0.0002627222110830762</v>
       </c>
       <c r="H3">
-        <v>1.865380480528475E-05</v>
+        <v>3.585551702093655E-05</v>
       </c>
       <c r="I3">
-        <v>0.002425999790705488</v>
+        <v>0.004663149298302168</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.002014210943120121</v>
+        <v>0.003871627022404544</v>
       </c>
       <c r="C4">
-        <v>0.00012525</v>
+        <v>0.00024075</v>
       </c>
       <c r="D4">
-        <v>0.0001109624161242089</v>
+        <v>0.0002132870393764735</v>
       </c>
       <c r="E4">
-        <v>2.005065890979763E-05</v>
+        <v>3.854048808410202E-05</v>
       </c>
       <c r="F4">
-        <v>0.0002677506499533643</v>
+        <v>0.0005146584349402992</v>
       </c>
       <c r="G4">
-        <v>0.0001338916170158267</v>
+        <v>0.0002573605333058705</v>
       </c>
       <c r="H4">
-        <v>2.664829257897821E-06</v>
+        <v>5.122216717276651E-06</v>
       </c>
       <c r="I4">
-        <v>0.002674781114381216</v>
+        <v>0.005141345734828566</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>0.002533257609231845</v>
+        <v>0.00486931552433187</v>
       </c>
       <c r="C5">
-        <v>0.000167</v>
+        <v>0.000321</v>
       </c>
       <c r="D5">
-        <v>0.0001020854228342723</v>
+        <v>0.0001962240762263555</v>
       </c>
       <c r="E5">
-        <v>2.005065890979763E-05</v>
+        <v>3.854048808410202E-05</v>
       </c>
       <c r="F5">
-        <v>0.0002567471985854179</v>
+        <v>0.000493508088298917</v>
       </c>
       <c r="G5">
-        <v>0.0001255233909523375</v>
+        <v>0.0002412754999742537</v>
       </c>
       <c r="H5">
-        <v>2.664829257897821E-06</v>
+        <v>5.122216717276651E-06</v>
       </c>
       <c r="I5">
-        <v>0.003207329109771569</v>
+        <v>0.006164985893632775</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>0.002583612882809848</v>
+        <v>0.00496610619989198</v>
       </c>
       <c r="C6">
-        <v>0.00029225</v>
+        <v>0.0005617500000000001</v>
       </c>
       <c r="D6">
-        <v>0.0001065239194792406</v>
+        <v>0.0002047555578014146</v>
       </c>
       <c r="E6">
-        <v>2.227850989977514E-05</v>
+        <v>4.282276453789114E-05</v>
       </c>
       <c r="F6">
-        <v>0.0003374391752836921</v>
+        <v>0.0006486106303357194</v>
       </c>
       <c r="G6">
-        <v>0.0001394704343914861</v>
+        <v>0.0002680838888602818</v>
       </c>
       <c r="H6">
-        <v>1.065931703159128E-05</v>
+        <v>2.04888668691066E-05</v>
       </c>
       <c r="I6">
-        <v>0.003492234238895633</v>
+        <v>0.006712617908296394</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.002308595619422292</v>
+        <v>0.004437480202602129</v>
       </c>
       <c r="C7">
-        <v>0.000167</v>
+        <v>0.000321</v>
       </c>
       <c r="D7">
-        <v>0.0001331548993490508</v>
+        <v>0.0002559444472517682</v>
       </c>
       <c r="E7">
-        <v>2.450636088975266E-05</v>
+        <v>4.710504099168023E-05</v>
       </c>
       <c r="F7">
-        <v>0.0003704495293875314</v>
+        <v>0.0007120616702598657</v>
       </c>
       <c r="G7">
-        <v>0.0001255233909523375</v>
+        <v>0.0002412754999742537</v>
       </c>
       <c r="H7">
-        <v>4.263726812636514E-05</v>
+        <v>8.195546747642641E-05</v>
       </c>
       <c r="I7">
-        <v>0.003171867068127329</v>
+        <v>0.006096822328556123</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>0.002544878056980614</v>
+        <v>0.004891651834076509</v>
       </c>
       <c r="C8">
-        <v>0.0001878750000000001</v>
+        <v>0.000361125</v>
       </c>
       <c r="D8">
-        <v>0.000173101369153766</v>
+        <v>0.0003327277814272987</v>
       </c>
       <c r="E8">
-        <v>2.673421187973017E-05</v>
+        <v>5.138731744546936E-05</v>
       </c>
       <c r="F8">
-        <v>0.0002567471985854179</v>
+        <v>0.000493508088298917</v>
       </c>
       <c r="G8">
-        <v>0.0001032081214496998</v>
+        <v>0.0001983820777566085</v>
       </c>
       <c r="H8">
-        <v>2.131863406318257E-05</v>
+        <v>4.09777337382132E-05</v>
       </c>
       <c r="I8">
-        <v>0.00331386259211241</v>
+        <v>0.006369759832743016</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>0.002792780942287706</v>
+        <v>0.005368159775295527</v>
       </c>
       <c r="C9">
-        <v>0.00012525</v>
+        <v>0.00024075</v>
       </c>
       <c r="D9">
-        <v>0.0001597858792188609</v>
+        <v>0.000307133336702122</v>
       </c>
       <c r="E9">
-        <v>4.67848707895278E-05</v>
+        <v>8.99278055295714E-05</v>
       </c>
       <c r="F9">
-        <v>0.0003007610040572039</v>
+        <v>0.0005781094748644458</v>
       </c>
       <c r="G9">
-        <v>8.089285194706202E-05</v>
+        <v>0.0001554886555389634</v>
       </c>
       <c r="H9">
-        <v>1.332414628948911E-05</v>
+        <v>2.561108358638325E-05</v>
       </c>
       <c r="I9">
-        <v>0.003519579694589849</v>
+        <v>0.006765180131517013</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>0.003978066612662239</v>
+        <v>0.007646463369248977</v>
       </c>
       <c r="C10">
-        <v>0.0001878750000000001</v>
+        <v>0.000361125</v>
       </c>
       <c r="D10">
-        <v>0.0001331548993490508</v>
+        <v>0.0002559444472517682</v>
       </c>
       <c r="E10">
-        <v>4.010131781959526E-05</v>
+        <v>7.708097616820404E-05</v>
       </c>
       <c r="F10">
-        <v>0.0002530793814627691</v>
+        <v>0.0004864579727517894</v>
       </c>
       <c r="G10">
-        <v>6.415639982008364E-05</v>
+        <v>0.0001233185888757296</v>
       </c>
       <c r="H10">
-        <v>1.065931703159128E-05</v>
+        <v>2.04888668691066E-05</v>
       </c>
       <c r="I10">
-        <v>0.004667092928145329</v>
+        <v>0.008970879221165575</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,25 +699,25 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>0.00396644616491347</v>
+        <v>0.007624127059504336</v>
       </c>
       <c r="C11">
-        <v>0.000167</v>
+        <v>0.000321</v>
       </c>
       <c r="D11">
-        <v>0.0001109624161242089</v>
+        <v>0.0002132870393764735</v>
       </c>
       <c r="E11">
-        <v>6.015197672939288E-05</v>
+        <v>0.000115621464252306</v>
       </c>
       <c r="F11">
-        <v>0.0001467126849059531</v>
+        <v>0.0002820046218850955</v>
       </c>
       <c r="G11">
-        <v>6.694580850791335E-05</v>
+        <v>0.0001286802666529353</v>
       </c>
       <c r="I11">
-        <v>0.004518219051180938</v>
+        <v>0.008684720451671147</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,25 +725,25 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>0.003083292136006955</v>
+        <v>0.005926567518911572</v>
       </c>
       <c r="C12">
-        <v>0.0003131249999999999</v>
+        <v>0.0006018749999999999</v>
       </c>
       <c r="D12">
-        <v>7.989293960943045E-05</v>
+        <v>0.000153566668351061</v>
       </c>
       <c r="E12">
-        <v>5.124057276948284E-05</v>
+        <v>9.849235843714964E-05</v>
       </c>
       <c r="F12">
-        <v>0.0001723874047644948</v>
+        <v>0.0003313554307149869</v>
       </c>
       <c r="G12">
-        <v>6.415639982008364E-05</v>
+        <v>0.0001233185888757296</v>
       </c>
       <c r="I12">
-        <v>0.003764094452970447</v>
+        <v>0.007235175565290499</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,28 +751,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>0.00247128188790507</v>
+        <v>0.004750188539027111</v>
       </c>
       <c r="C13">
-        <v>0.000229625</v>
+        <v>0.0004413749999999999</v>
       </c>
       <c r="D13">
-        <v>9.764692618930389E-05</v>
+        <v>0.0001876925946512966</v>
       </c>
       <c r="E13">
-        <v>3.564561583964022E-05</v>
+        <v>6.85164232606258E-05</v>
       </c>
       <c r="F13">
-        <v>0.0001026988794341671</v>
+        <v>0.0001974032353195668</v>
       </c>
       <c r="G13">
-        <v>0.0001143657562010187</v>
+        <v>0.0002198287888654311</v>
       </c>
       <c r="H13">
-        <v>2.664829257897821E-06</v>
+        <v>5.122216717276651E-06</v>
       </c>
       <c r="I13">
-        <v>0.003053928894827098</v>
+        <v>0.005870126797841308</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.001847651192054418</v>
+        <v>0.003551473249398014</v>
       </c>
       <c r="C14">
-        <v>0.000167</v>
+        <v>0.000321</v>
       </c>
       <c r="D14">
-        <v>5.32619597396203E-05</v>
+        <v>0.0001023777789007073</v>
       </c>
       <c r="E14">
-        <v>2.005065890979763E-05</v>
+        <v>3.854048808410202E-05</v>
       </c>
       <c r="F14">
-        <v>7.702415957562539E-05</v>
+        <v>0.000148052426489675</v>
       </c>
       <c r="G14">
-        <v>0.0001171551648888484</v>
+        <v>0.0002251904666426367</v>
       </c>
       <c r="I14">
-        <v>0.00228214313516831</v>
+        <v>0.004386634409515136</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.001216273531037919</v>
+        <v>0.00233786708660582</v>
       </c>
       <c r="C15">
-        <v>0.000229625</v>
+        <v>0.0004413749999999999</v>
       </c>
       <c r="D15">
-        <v>5.32619597396203E-05</v>
+        <v>0.0001023777789007073</v>
       </c>
       <c r="E15">
-        <v>2.005065890979763E-05</v>
+        <v>3.854048808410202E-05</v>
       </c>
       <c r="F15">
-        <v>9.169542806622066E-05</v>
+        <v>0.0001762528886781846</v>
       </c>
       <c r="G15">
-        <v>7.252462588357279E-05</v>
+        <v>0.0001394036222073465</v>
       </c>
       <c r="I15">
-        <v>0.00168343120363713</v>
+        <v>0.00323581686447616</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.0006081367655189594</v>
+        <v>0.00116893354330291</v>
       </c>
       <c r="C16">
-        <v>0.0001878750000000001</v>
+        <v>0.000361125</v>
       </c>
       <c r="D16">
-        <v>3.106947651477852E-05</v>
+        <v>5.972037102541254E-05</v>
       </c>
       <c r="E16">
-        <v>1.559495692984259E-05</v>
+        <v>2.997593517652379E-05</v>
       </c>
       <c r="F16">
-        <v>4.03459883491371E-05</v>
+        <v>7.755127101840125E-05</v>
       </c>
       <c r="G16">
-        <v>5.578817375659449E-05</v>
+        <v>0.0001072335555441127</v>
       </c>
       <c r="I16">
-        <v>0.0009388103610693122</v>
+        <v>0.00180453967606736</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.0004415770144532573</v>
+        <v>0.0008487797702963805</v>
       </c>
       <c r="C17">
-        <v>0.000167</v>
+        <v>0.000321</v>
       </c>
       <c r="D17">
-        <v>4.43849664496836E-06</v>
+        <v>8.531481575058931E-06</v>
       </c>
       <c r="E17">
-        <v>1.113925494988757E-05</v>
+        <v>2.141138226894557E-05</v>
       </c>
       <c r="F17">
-        <v>4.401380547178594E-05</v>
+        <v>8.460138656552861E-05</v>
       </c>
       <c r="G17">
-        <v>3.62623129417864E-05</v>
+        <v>6.970181110367326E-05</v>
       </c>
       <c r="I17">
-        <v>0.0007044308844616856</v>
+        <v>0.001354025831809587</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,25 +884,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.0002595233330558618</v>
+        <v>0.0004988442509636623</v>
       </c>
       <c r="C18">
-        <v>0.00029225</v>
+        <v>0.0005617500000000001</v>
       </c>
       <c r="D18">
-        <v>1.775398657987344E-05</v>
+        <v>3.412592630023572E-05</v>
       </c>
       <c r="E18">
-        <v>6.683552969932542E-06</v>
+        <v>1.284682936136734E-05</v>
       </c>
       <c r="F18">
-        <v>3.667817122648827E-05</v>
+        <v>7.050115547127387E-05</v>
       </c>
       <c r="G18">
-        <v>3.62623129417864E-05</v>
+        <v>6.970181110367326E-05</v>
       </c>
       <c r="I18">
-        <v>0.0006491513567739424</v>
+        <v>0.001247769973200213</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,22 +910,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.0002052945768949354</v>
+        <v>0.0003946081388220016</v>
       </c>
       <c r="C19">
-        <v>0.00012525</v>
+        <v>0.00024075</v>
       </c>
       <c r="D19">
-        <v>4.43849664496836E-06</v>
+        <v>8.531481575058931E-06</v>
       </c>
       <c r="F19">
-        <v>3.667817122648827E-05</v>
+        <v>7.050115547127387E-05</v>
       </c>
       <c r="G19">
-        <v>3.905172162961615E-05</v>
+        <v>7.506348888087889E-05</v>
       </c>
       <c r="I19">
-        <v>0.0004107129663960082</v>
+        <v>0.0007894542647492132</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -933,25 +933,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.0001820536813973955</v>
+        <v>0.0003499355193327182</v>
       </c>
       <c r="C20">
-        <v>6.262499999999999E-05</v>
+        <v>0.000120375</v>
       </c>
       <c r="D20">
-        <v>1.775398657987344E-05</v>
+        <v>3.412592630023572E-05</v>
       </c>
       <c r="E20">
-        <v>2.227850989977514E-06</v>
+        <v>4.282276453789113E-06</v>
       </c>
       <c r="F20">
-        <v>6.235289108503005E-05</v>
+        <v>0.0001198519643011656</v>
       </c>
       <c r="G20">
-        <v>5.299876506876475E-05</v>
+        <v>0.0001018718777669071</v>
       </c>
       <c r="I20">
-        <v>0.0003800121751210413</v>
+        <v>0.0007304425641548157</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,25 +959,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.0003757278105435612</v>
+        <v>0.0007222073484100782</v>
       </c>
       <c r="C21">
-        <v>6.262499999999999E-05</v>
+        <v>0.000120375</v>
       </c>
       <c r="D21">
-        <v>2.663097986981015E-05</v>
+        <v>5.118888945035365E-05</v>
       </c>
       <c r="E21">
-        <v>6.683552969932542E-06</v>
+        <v>1.284682936136734E-05</v>
       </c>
       <c r="F21">
-        <v>5.868507396238122E-05</v>
+        <v>0.0001128018487540382</v>
       </c>
       <c r="G21">
-        <v>0.0001199445735766781</v>
+        <v>0.0002305521444198423</v>
       </c>
       <c r="I21">
-        <v>0.0006502969909223631</v>
+        <v>0.00124997206039568</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -985,25 +985,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.0009877380586454439</v>
+        <v>0.001898586328294535</v>
       </c>
       <c r="C22">
-        <v>6.262499999999999E-05</v>
+        <v>0.000120375</v>
       </c>
       <c r="D22">
-        <v>8.876993289936715E-05</v>
+        <v>0.0001706296315011787</v>
       </c>
       <c r="E22">
-        <v>2.005065890979763E-05</v>
+        <v>3.854048808410202E-05</v>
       </c>
       <c r="F22">
-        <v>9.536324518886948E-05</v>
+        <v>0.000183303004225312</v>
       </c>
       <c r="G22">
-        <v>0.0002259421037142076</v>
+        <v>0.0004342958999536565</v>
       </c>
       <c r="I22">
-        <v>0.001480488999357686</v>
+        <v>0.002845730352058784</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1011,28 +1011,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.002269860793593059</v>
+        <v>0.004363025836786659</v>
       </c>
       <c r="C23">
-        <v>0.00012525</v>
+        <v>0.00024075</v>
       </c>
       <c r="D23">
-        <v>7.545444296446205E-05</v>
+        <v>0.0001450351867760019</v>
       </c>
       <c r="E23">
-        <v>7.57469336592355E-05</v>
+        <v>0.0001455973994288298</v>
       </c>
       <c r="F23">
-        <v>0.0002567471985854179</v>
+        <v>0.000493508088298917</v>
       </c>
       <c r="G23">
-        <v>0.0002064162428993995</v>
+        <v>0.0003967641555132171</v>
       </c>
       <c r="H23">
-        <v>1.065931703159128E-05</v>
+        <v>2.04888668691066E-05</v>
       </c>
       <c r="I23">
-        <v>0.003020134928733165</v>
+        <v>0.005805169533672732</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1040,28 +1040,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>0.002936099797855869</v>
+        <v>0.005643640928812777</v>
       </c>
       <c r="C24">
-        <v>0.000146125</v>
+        <v>0.000280875</v>
       </c>
       <c r="D24">
-        <v>7.545444296446205E-05</v>
+        <v>0.0001450351867760019</v>
       </c>
       <c r="E24">
-        <v>4.67848707895278E-05</v>
+        <v>8.99278055295714E-05</v>
       </c>
       <c r="F24">
-        <v>0.000231072478726876</v>
+        <v>0.0004441572794690253</v>
       </c>
       <c r="G24">
-        <v>0.0001673645212697835</v>
+        <v>0.0003217006666323382</v>
       </c>
       <c r="H24">
-        <v>1.065931703159128E-05</v>
+        <v>2.04888668691066E-05</v>
       </c>
       <c r="I24">
-        <v>0.00361356042863811</v>
+        <v>0.006945825734088819</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1069,28 +1069,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>0.003451272981384668</v>
+        <v>0.006633883994158554</v>
       </c>
       <c r="C25">
-        <v>0.000104375</v>
+        <v>0.000200625</v>
       </c>
       <c r="D25">
-        <v>0.0001287164027040824</v>
+        <v>0.0002474129656767092</v>
       </c>
       <c r="E25">
-        <v>4.232916880957276E-05</v>
+        <v>8.136325262199315E-05</v>
       </c>
       <c r="F25">
-        <v>0.0001943943075003879</v>
+        <v>0.0003736561239977515</v>
       </c>
       <c r="G25">
-        <v>0.0001338916170158267</v>
+        <v>0.0002573605333058705</v>
       </c>
       <c r="H25">
-        <v>1.598897554738692E-05</v>
+        <v>3.073330030365989E-05</v>
       </c>
       <c r="I25">
-        <v>0.004070968452961925</v>
+        <v>0.007825035170064538</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1098,28 +1098,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>0.002812148355202324</v>
+        <v>0.005405386958203267</v>
       </c>
       <c r="C26">
-        <v>0.000334</v>
+        <v>0.000642</v>
       </c>
       <c r="D26">
-        <v>0.0001154009127691773</v>
+        <v>0.0002218185209515325</v>
       </c>
       <c r="E26">
-        <v>4.232916880957276E-05</v>
+        <v>8.136325262199315E-05</v>
       </c>
       <c r="F26">
-        <v>0.0002934253698119062</v>
+        <v>0.000564009243770191</v>
       </c>
       <c r="G26">
-        <v>0.0002008374255237402</v>
+        <v>0.0003860407999588058</v>
       </c>
       <c r="H26">
-        <v>1.865380480528475E-05</v>
+        <v>3.585551702093655E-05</v>
       </c>
       <c r="I26">
-        <v>0.003816795036922005</v>
+        <v>0.007336474292526726</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1127,28 +1127,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.002033578356034738</v>
+        <v>0.003908854205312277</v>
       </c>
       <c r="C27">
-        <v>0.0002505</v>
+        <v>0.0004815</v>
       </c>
       <c r="D27">
-        <v>0.0001065239194792406</v>
+        <v>0.0002047555578014146</v>
       </c>
       <c r="E27">
-        <v>1.559495692984259E-05</v>
+        <v>2.997593517652379E-05</v>
       </c>
       <c r="F27">
-        <v>0.0003557782608969364</v>
+        <v>0.0006838612080713564</v>
       </c>
       <c r="G27">
-        <v>0.0001673645212697835</v>
+        <v>0.0003217006666323382</v>
       </c>
       <c r="H27">
-        <v>1.598897554738692E-05</v>
+        <v>3.073330030365989E-05</v>
       </c>
       <c r="I27">
-        <v>0.002945328990157928</v>
+        <v>0.00566138087329757</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1156,28 +1156,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.002196264624517516</v>
+        <v>0.004221562541737261</v>
       </c>
       <c r="C28">
-        <v>0.000146125</v>
+        <v>0.000280875</v>
       </c>
       <c r="D28">
-        <v>0.0001198394094141457</v>
+        <v>0.0002303500025265914</v>
       </c>
       <c r="E28">
-        <v>2.227850989977514E-05</v>
+        <v>4.282276453789114E-05</v>
       </c>
       <c r="F28">
-        <v>0.0002934253698119062</v>
+        <v>0.000564009243770191</v>
       </c>
       <c r="G28">
-        <v>0.0001450492517671456</v>
+        <v>0.000278807244414693</v>
       </c>
       <c r="H28">
-        <v>2.664829257897821E-06</v>
+        <v>5.122216717276651E-06</v>
       </c>
       <c r="I28">
-        <v>0.002925646994668387</v>
+        <v>0.005623549013703905</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1185,28 +1185,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>0.002424800096909991</v>
+        <v>0.004660843300048546</v>
       </c>
       <c r="C29">
-        <v>0.000229625</v>
+        <v>0.0004413749999999999</v>
       </c>
       <c r="D29">
-        <v>8.876993289936715E-05</v>
+        <v>0.0001706296315011787</v>
       </c>
       <c r="E29">
-        <v>2.005065890979763E-05</v>
+        <v>3.854048808410202E-05</v>
       </c>
       <c r="F29">
-        <v>0.0003007610040572039</v>
+        <v>0.0005781094748644458</v>
       </c>
       <c r="G29">
-        <v>0.0001004187127618701</v>
+        <v>0.0001930203999794029</v>
       </c>
       <c r="H29">
-        <v>1.065931703159128E-05</v>
+        <v>2.04888668691066E-05</v>
       </c>
       <c r="I29">
-        <v>0.00317508472256982</v>
+        <v>0.006103007161346783</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1214,28 +1214,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>0.002664956017051236</v>
+        <v>0.005122460368104475</v>
       </c>
       <c r="C30">
-        <v>0.0002505</v>
+        <v>0.0004815</v>
       </c>
       <c r="D30">
-        <v>0.0001109624161242089</v>
+        <v>0.0002132870393764735</v>
       </c>
       <c r="E30">
-        <v>2.005065890979763E-05</v>
+        <v>3.854048808410202E-05</v>
       </c>
       <c r="F30">
-        <v>0.0002384081129721738</v>
+        <v>0.0004582575105632799</v>
       </c>
       <c r="G30">
-        <v>0.0001171551648888484</v>
+        <v>0.0002251904666426367</v>
       </c>
       <c r="H30">
-        <v>2.664829257897821E-06</v>
+        <v>5.122216717276651E-06</v>
       </c>
       <c r="I30">
-        <v>0.003404697199204162</v>
+        <v>0.006544358089488244</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1243,28 +1243,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>0.002494522783402611</v>
+        <v>0.004794861158516395</v>
       </c>
       <c r="C31">
-        <v>0.0001878750000000001</v>
+        <v>0.000361125</v>
       </c>
       <c r="D31">
-        <v>0.0001109624161242089</v>
+        <v>0.0002132870393764735</v>
       </c>
       <c r="E31">
-        <v>1.782280791982011E-05</v>
+        <v>3.42582116303129E-05</v>
       </c>
       <c r="F31">
-        <v>0.0003594460780195849</v>
+        <v>0.0006909113236184841</v>
       </c>
       <c r="G31">
-        <v>0.000111576347513189</v>
+        <v>0.0002144671110882255</v>
       </c>
       <c r="H31">
-        <v>1.332414628948911E-05</v>
+        <v>2.561108358638325E-05</v>
       </c>
       <c r="I31">
-        <v>0.003295529579268904</v>
+        <v>0.006334520927816276</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1272,28 +1272,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>0.00282376880295109</v>
+        <v>0.005427723267947911</v>
       </c>
       <c r="C32">
-        <v>0.000271375</v>
+        <v>0.0005216249999999998</v>
       </c>
       <c r="D32">
-        <v>8.433143625439878E-05</v>
+        <v>0.0001620981499261198</v>
       </c>
       <c r="E32">
-        <v>1.782280791982011E-05</v>
+        <v>3.42582116303129E-05</v>
       </c>
       <c r="F32">
-        <v>0.0002530793814627691</v>
+        <v>0.0004864579727517894</v>
       </c>
       <c r="G32">
-        <v>0.0001171551648888484</v>
+        <v>0.0002251904666426367</v>
       </c>
       <c r="H32">
-        <v>7.994487773693461E-06</v>
+        <v>1.536665015182995E-05</v>
       </c>
       <c r="I32">
-        <v>0.00357552708125062</v>
+        <v>0.0068727197190506</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1301,28 +1301,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>0.003063924723092338</v>
+        <v>0.005889340336003831</v>
       </c>
       <c r="C33">
-        <v>0.000167</v>
+        <v>0.000321</v>
       </c>
       <c r="D33">
-        <v>0.0001553473825738925</v>
+        <v>0.0002986018551270629</v>
       </c>
       <c r="E33">
-        <v>4.232916880957276E-05</v>
+        <v>8.136325262199315E-05</v>
       </c>
       <c r="F33">
-        <v>0.0003080966383025016</v>
+        <v>0.0005922097059587</v>
       </c>
       <c r="G33">
-        <v>6.973521719574305E-05</v>
+        <v>0.0001340419444301409</v>
       </c>
       <c r="H33">
-        <v>1.332414628948911E-05</v>
+        <v>2.561108358638325E-05</v>
       </c>
       <c r="I33">
-        <v>0.003819757276263537</v>
+        <v>0.007342168177728111</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>0.003664314523445451</v>
+        <v>0.007043383006143654</v>
       </c>
       <c r="C34">
-        <v>0.000229625</v>
+        <v>0.0004413749999999999</v>
       </c>
       <c r="D34">
-        <v>0.0001420318926389875</v>
+        <v>0.0002730074104018858</v>
       </c>
       <c r="E34">
-        <v>4.901272177950532E-05</v>
+        <v>9.421008198336047E-05</v>
       </c>
       <c r="F34">
-        <v>0.0002090655759909831</v>
+        <v>0.000401856586186261</v>
       </c>
       <c r="G34">
-        <v>4.463053900527558E-05</v>
+        <v>8.578684443529016E-05</v>
       </c>
       <c r="H34">
-        <v>2.664829257897821E-06</v>
+        <v>5.122216717276651E-06</v>
       </c>
       <c r="I34">
-        <v>0.0043413450821181</v>
+        <v>0.008344741145867729</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,25 +1359,25 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>0.003857988652591616</v>
+        <v>0.007415654835221011</v>
       </c>
       <c r="C35">
-        <v>0.000146125</v>
+        <v>0.000280875</v>
       </c>
       <c r="D35">
-        <v>0.0001020854228342723</v>
+        <v>0.0001962240762263555</v>
       </c>
       <c r="E35">
-        <v>6.015197672939288E-05</v>
+        <v>0.000115621464252306</v>
       </c>
       <c r="F35">
-        <v>0.0001100345136794648</v>
+        <v>0.0002115034664138215</v>
       </c>
       <c r="G35">
-        <v>6.136699113225393E-05</v>
+        <v>0.000117956911098524</v>
       </c>
       <c r="I35">
-        <v>0.004337752556967</v>
+        <v>0.008337835753212017</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1385,25 +1385,25 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>0.003602338802118677</v>
+        <v>0.006924256020838892</v>
       </c>
       <c r="C36">
-        <v>0.000104375</v>
+        <v>0.000200625</v>
       </c>
       <c r="D36">
-        <v>0.0001065239194792406</v>
+        <v>0.0002047555578014146</v>
       </c>
       <c r="E36">
-        <v>4.455701979955029E-05</v>
+        <v>8.564552907578227E-05</v>
       </c>
       <c r="F36">
-        <v>0.0001540483191512508</v>
+        <v>0.00029610485297935</v>
       </c>
       <c r="G36">
-        <v>9.205048669838091E-05</v>
+        <v>0.0001769353666477859</v>
       </c>
       <c r="I36">
-        <v>0.004103893547247099</v>
+        <v>0.007888322327343225</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1411,25 +1411,25 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.002231125967763827</v>
+        <v>0.004288571470971187</v>
       </c>
       <c r="C37">
-        <v>0.000229625</v>
+        <v>0.0004413749999999999</v>
       </c>
       <c r="D37">
-        <v>9.764692618930389E-05</v>
+        <v>0.0001876925946512966</v>
       </c>
       <c r="E37">
-        <v>5.346842375946033E-05</v>
+        <v>0.0001027746348909387</v>
       </c>
       <c r="F37">
-        <v>7.335634245297655E-05</v>
+        <v>0.0001410023109425477</v>
       </c>
       <c r="G37">
-        <v>9.48398953862106E-05</v>
+        <v>0.0001822970444249916</v>
       </c>
       <c r="I37">
-        <v>0.002780062555551778</v>
+        <v>0.005343713055880962</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.001913500395964115</v>
+        <v>0.003678045671284317</v>
       </c>
       <c r="C38">
-        <v>0.0001878750000000001</v>
+        <v>0.000361125</v>
       </c>
       <c r="D38">
-        <v>7.989293960943045E-05</v>
+        <v>0.000153566668351061</v>
       </c>
       <c r="E38">
-        <v>2.227850989977514E-05</v>
+        <v>4.282276453789114E-05</v>
       </c>
       <c r="F38">
-        <v>9.90310623115183E-05</v>
+        <v>0.0001903531197724393</v>
       </c>
       <c r="G38">
-        <v>9.205048669838091E-05</v>
+        <v>0.0001769353666477859</v>
       </c>
       <c r="I38">
-        <v>0.002394628394483221</v>
+        <v>0.004602848590593494</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,28 +1463,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.001328604525942696</v>
+        <v>0.002553784747470691</v>
       </c>
       <c r="C39">
-        <v>0.00029225</v>
+        <v>0.0005617500000000001</v>
       </c>
       <c r="D39">
-        <v>4.882346309465194E-05</v>
+        <v>9.384629732564831E-05</v>
       </c>
       <c r="E39">
-        <v>2.896206286970768E-05</v>
+        <v>5.566959389925846E-05</v>
       </c>
       <c r="F39">
-        <v>5.868507396238122E-05</v>
+        <v>0.0001128018487540382</v>
       </c>
       <c r="G39">
-        <v>7.531403457140256E-05</v>
+        <v>0.0001447652999845522</v>
       </c>
       <c r="H39">
-        <v>2.664829257897821E-06</v>
+        <v>5.122216717276651E-06</v>
       </c>
       <c r="I39">
-        <v>0.001835303989698737</v>
+        <v>0.003527740004151464</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1492,25 +1492,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.0008289252727455885</v>
+        <v>0.001593323428451101</v>
       </c>
       <c r="C40">
-        <v>0.0001878750000000001</v>
+        <v>0.000361125</v>
       </c>
       <c r="D40">
-        <v>1.775398657987344E-05</v>
+        <v>3.412592630023572E-05</v>
       </c>
       <c r="E40">
-        <v>1.559495692984259E-05</v>
+        <v>2.997593517652379E-05</v>
       </c>
       <c r="F40">
-        <v>5.50172568397324E-05</v>
+        <v>0.0001057517332069108</v>
       </c>
       <c r="G40">
-        <v>3.62623129417864E-05</v>
+        <v>6.970181110367326E-05</v>
       </c>
       <c r="I40">
-        <v>0.001141428786036823</v>
+        <v>0.002194003834238445</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1518,25 +1518,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.0004454504970361804</v>
+        <v>0.0008562252068779277</v>
       </c>
       <c r="C41">
-        <v>0.00029225</v>
+        <v>0.0005617500000000001</v>
       </c>
       <c r="D41">
-        <v>1.775398657987344E-05</v>
+        <v>3.412592630023572E-05</v>
       </c>
       <c r="E41">
-        <v>1.113925494988757E-05</v>
+        <v>2.141138226894557E-05</v>
       </c>
       <c r="F41">
-        <v>5.868507396238122E-05</v>
+        <v>0.0001128018487540382</v>
       </c>
       <c r="G41">
-        <v>4.184113031744588E-05</v>
+        <v>8.042516665808455E-05</v>
       </c>
       <c r="I41">
-        <v>0.0008671199428457685</v>
+        <v>0.001666739530859232</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1544,25 +1544,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.0002595233330558618</v>
+        <v>0.0004988442509636623</v>
       </c>
       <c r="C42">
-        <v>0.000167</v>
+        <v>0.000321</v>
       </c>
       <c r="D42">
-        <v>1.331548993490507E-05</v>
+        <v>2.559444472517682E-05</v>
       </c>
       <c r="E42">
-        <v>8.911403959910054E-06</v>
+        <v>1.712910581515645E-05</v>
       </c>
       <c r="F42">
-        <v>5.50172568397324E-05</v>
+        <v>0.0001057517332069108</v>
       </c>
       <c r="G42">
-        <v>2.789408687829724E-05</v>
+        <v>5.361677777205636E-05</v>
       </c>
       <c r="I42">
-        <v>0.0005316615706687065</v>
+        <v>0.001021936312482963</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1570,22 +1570,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.0001975476117290888</v>
+        <v>0.0003797172656589073</v>
       </c>
       <c r="C43">
-        <v>0.00012525</v>
+        <v>0.00024075</v>
       </c>
       <c r="D43">
-        <v>8.876993289936721E-06</v>
+        <v>1.706296315011786E-05</v>
       </c>
       <c r="F43">
-        <v>3.667817122648827E-05</v>
+        <v>7.050115547127387E-05</v>
       </c>
       <c r="G43">
-        <v>5.020935638093504E-05</v>
+        <v>9.651019998970144E-05</v>
       </c>
       <c r="I43">
-        <v>0.0004185621326264489</v>
+        <v>0.0008045415842700006</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,25 +1593,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.000151065820734009</v>
+        <v>0.0002903720266803406</v>
       </c>
       <c r="C44">
-        <v>6.262499999999999E-05</v>
+        <v>0.000120375</v>
       </c>
       <c r="D44">
-        <v>8.876993289936721E-06</v>
+        <v>1.706296315011786E-05</v>
       </c>
       <c r="E44">
-        <v>2.227850989977514E-06</v>
+        <v>4.282276453789113E-06</v>
       </c>
       <c r="F44">
-        <v>5.868507396238122E-05</v>
+        <v>0.0001128018487540382</v>
       </c>
       <c r="G44">
-        <v>6.415639982008364E-05</v>
+        <v>0.0001233185888757296</v>
       </c>
       <c r="I44">
-        <v>0.000347637138796388</v>
+        <v>0.0006682127039140154</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1619,25 +1619,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.0004570709447849505</v>
+        <v>0.0008785615166225692</v>
       </c>
       <c r="C45">
-        <v>0.000104375</v>
+        <v>0.000200625</v>
       </c>
       <c r="D45">
-        <v>3.550797315974688E-05</v>
+        <v>6.825185260047145E-05</v>
       </c>
       <c r="E45">
-        <v>1.113925494988757E-05</v>
+        <v>2.141138226894557E-05</v>
       </c>
       <c r="F45">
-        <v>6.968852533032769E-05</v>
+        <v>0.0001339521953954203</v>
       </c>
       <c r="G45">
-        <v>0.0001059975301375295</v>
+        <v>0.0002037437555338142</v>
       </c>
       <c r="I45">
-        <v>0.0007837792283624421</v>
+        <v>0.001506545702421221</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1645,25 +1645,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.0008095578598309719</v>
+        <v>0.001556096245543365</v>
       </c>
       <c r="D46">
-        <v>8.876993289936715E-05</v>
+        <v>0.0001706296315011787</v>
       </c>
       <c r="E46">
-        <v>2.673421187973017E-05</v>
+        <v>5.138731744546936E-05</v>
       </c>
       <c r="F46">
-        <v>0.0001210379650474113</v>
+        <v>0.0002326538130552037</v>
       </c>
       <c r="G46">
-        <v>0.000231520921089867</v>
+        <v>0.0004450192555080678</v>
       </c>
       <c r="H46">
-        <v>7.994487773693461E-06</v>
+        <v>1.536665015182995E-05</v>
       </c>
       <c r="I46">
-        <v>0.001285615378521041</v>
+        <v>0.002471152913205115</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1671,28 +1671,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.002389938753663683</v>
+        <v>0.004593834370814623</v>
       </c>
       <c r="C47">
-        <v>0.000167</v>
+        <v>0.000321</v>
       </c>
       <c r="D47">
-        <v>0.0001020854228342723</v>
+        <v>0.0001962240762263555</v>
       </c>
       <c r="E47">
-        <v>7.57469336592355E-05</v>
+        <v>0.0001455973994288298</v>
       </c>
       <c r="F47">
-        <v>0.0002604150157080668</v>
+        <v>0.0005005582038460444</v>
       </c>
       <c r="G47">
-        <v>0.0002370997384655266</v>
+        <v>0.000455742611062479</v>
       </c>
       <c r="H47">
-        <v>5.329658515795642E-06</v>
+        <v>1.02444334345533E-05</v>
       </c>
       <c r="I47">
-        <v>0.00323761552284658</v>
+        <v>0.006223201094812884</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1700,28 +1700,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>0.00285475666361448</v>
+        <v>0.005487286760600284</v>
       </c>
       <c r="C48">
-        <v>0.0003131249999999999</v>
+        <v>0.0006018749999999999</v>
       </c>
       <c r="D48">
-        <v>6.657744967452538E-05</v>
+        <v>0.0001279722236258841</v>
       </c>
       <c r="E48">
-        <v>4.901272177950532E-05</v>
+        <v>9.421008198336047E-05</v>
       </c>
       <c r="F48">
-        <v>0.0002384081129721738</v>
+        <v>0.0004582575105632799</v>
       </c>
       <c r="G48">
-        <v>0.0001757327473332726</v>
+        <v>0.0003377856999639551</v>
       </c>
       <c r="H48">
-        <v>1.332414628948911E-05</v>
+        <v>2.561108358638325E-05</v>
       </c>
       <c r="I48">
-        <v>0.003710936841663446</v>
+        <v>0.007132998360323147</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1729,28 +1729,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>0.003629453180199141</v>
+        <v>0.006976374076909724</v>
       </c>
       <c r="C49">
-        <v>8.35E-05</v>
+        <v>0.0001605</v>
       </c>
       <c r="D49">
-        <v>0.0001242779060591141</v>
+        <v>0.0002388814841016502</v>
       </c>
       <c r="E49">
-        <v>4.455701979955029E-05</v>
+        <v>8.564552907578227E-05</v>
       </c>
       <c r="F49">
-        <v>0.0002164012102362808</v>
+        <v>0.0004159568172805158</v>
       </c>
       <c r="G49">
-        <v>0.0001589962952062942</v>
+        <v>0.0003056156333007213</v>
       </c>
       <c r="H49">
-        <v>2.664829257897821E-06</v>
+        <v>5.122216717276651E-06</v>
       </c>
       <c r="I49">
-        <v>0.004259850440758278</v>
+        <v>0.008188095757385669</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_SOx.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.6632164454783362</v>
+        <v>0.3866191992245807</v>
       </c>
       <c r="C2">
-        <v>0.0111456</v>
+        <v>0.006497280000000003</v>
       </c>
       <c r="D2">
-        <v>0.05784175497576741</v>
+        <v>0.03371860445098997</v>
       </c>
       <c r="E2">
-        <v>0.07301927845993078</v>
+        <v>0.04256627705571157</v>
       </c>
       <c r="F2">
-        <v>0.05254761442989086</v>
+        <v>0.03063240779168832</v>
       </c>
       <c r="G2">
-        <v>0.2920298055805764</v>
+        <v>0.1702375300748785</v>
       </c>
       <c r="H2">
-        <v>0.04593842651016257</v>
+        <v>0.02677960987259091</v>
       </c>
       <c r="I2">
-        <v>1.195738925434664</v>
+        <v>0.6970509084704399</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>0.4788684532318913</v>
+        <v>0.2791543231243271</v>
       </c>
       <c r="C3">
-        <v>0.008359199999999999</v>
+        <v>0.004872959999999999</v>
       </c>
       <c r="D3">
-        <v>0.05258341361433402</v>
+        <v>0.03065327677362728</v>
       </c>
       <c r="E3">
-        <v>0.02281852451872837</v>
+        <v>0.01330196157990986</v>
       </c>
       <c r="F3">
-        <v>0.06322134861096249</v>
+        <v>0.03685461562437502</v>
       </c>
       <c r="G3">
-        <v>0.2425332283635293</v>
+        <v>0.1413837114181194</v>
       </c>
       <c r="H3">
-        <v>0.04019612319639225</v>
+        <v>0.02343215863851704</v>
       </c>
       <c r="I3">
-        <v>0.9085802915358376</v>
+        <v>0.5296530071588756</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.5672245915275247</v>
+        <v>0.3306611572315489</v>
       </c>
       <c r="C4">
-        <v>0.0055728</v>
+        <v>0.003248640000000001</v>
       </c>
       <c r="D4">
-        <v>0.06572926701791747</v>
+        <v>0.03831659596703413</v>
       </c>
       <c r="E4">
-        <v>0.04107334413371105</v>
+        <v>0.02394353084383776</v>
       </c>
       <c r="F4">
-        <v>0.0599371227090943</v>
+        <v>0.03494009013739453</v>
       </c>
       <c r="G4">
-        <v>0.2375835706418248</v>
+        <v>0.1384983295524435</v>
       </c>
       <c r="H4">
-        <v>0.005742303313770321</v>
+        <v>0.003347451234073864</v>
       </c>
       <c r="I4">
-        <v>0.9828629993438428</v>
+        <v>0.5729557949663328</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>0.7133940054980793</v>
+        <v>0.4158699939027563</v>
       </c>
       <c r="C5">
-        <v>0.007430399999999997</v>
+        <v>0.004331520000000001</v>
       </c>
       <c r="D5">
-        <v>0.06047092565648409</v>
+        <v>0.0352512682896713</v>
       </c>
       <c r="E5">
-        <v>0.04107334413371105</v>
+        <v>0.02394353084383776</v>
       </c>
       <c r="F5">
-        <v>0.05747395328269313</v>
+        <v>0.03350419602215907</v>
       </c>
       <c r="G5">
-        <v>0.2227345974767106</v>
+        <v>0.1298421839554158</v>
       </c>
       <c r="H5">
-        <v>0.005742303313770321</v>
+        <v>0.003347451234073864</v>
       </c>
       <c r="I5">
-        <v>1.108319529361448</v>
+        <v>0.646090144247914</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>0.7275746202862674</v>
+        <v>0.4241365228335455</v>
       </c>
       <c r="C6">
-        <v>0.0130032</v>
+        <v>0.007580160000000001</v>
       </c>
       <c r="D6">
-        <v>0.06310009633720076</v>
+        <v>0.03678393212835276</v>
       </c>
       <c r="E6">
-        <v>0.04563704903745673</v>
+        <v>0.02660392315981972</v>
       </c>
       <c r="F6">
-        <v>0.07553719574296806</v>
+        <v>0.04403408620055196</v>
       </c>
       <c r="G6">
-        <v>0.247482886085234</v>
+        <v>0.1442690932837954</v>
       </c>
       <c r="H6">
-        <v>0.02296921325508128</v>
+        <v>0.01338980493629546</v>
       </c>
       <c r="I6">
-        <v>1.195304260744208</v>
+        <v>0.6967975225423608</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.6501266472123168</v>
+        <v>0.3789885571346218</v>
       </c>
       <c r="C7">
-        <v>0.007430399999999997</v>
+        <v>0.004331520000000001</v>
       </c>
       <c r="D7">
-        <v>0.07887512042150105</v>
+        <v>0.0459799151604409</v>
       </c>
       <c r="E7">
-        <v>0.05020075394120239</v>
+        <v>0.02926431547580169</v>
       </c>
       <c r="F7">
-        <v>0.08292670402217162</v>
+        <v>0.04834176854625814</v>
       </c>
       <c r="G7">
-        <v>0.2227345974767106</v>
+        <v>0.1298421839554158</v>
       </c>
       <c r="H7">
-        <v>0.09187685302032514</v>
+        <v>0.05355921974518182</v>
       </c>
       <c r="I7">
-        <v>1.184171076094227</v>
+        <v>0.6903074800177202</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>0.7166664550645842</v>
+        <v>0.4177776544252461</v>
       </c>
       <c r="C8">
-        <v>0.008359199999999999</v>
+        <v>0.004872959999999999</v>
       </c>
       <c r="D8">
-        <v>0.1025376565479514</v>
+        <v>0.05977388970857313</v>
       </c>
       <c r="E8">
-        <v>0.05476445884494808</v>
+        <v>0.03192470779178368</v>
       </c>
       <c r="F8">
-        <v>0.05747395328269313</v>
+        <v>0.03350419602215907</v>
       </c>
       <c r="G8">
-        <v>0.1831373357030733</v>
+        <v>0.1067591290300086</v>
       </c>
       <c r="H8">
-        <v>0.04593842651016257</v>
+        <v>0.02677960987259091</v>
       </c>
       <c r="I8">
-        <v>1.168877485953413</v>
+        <v>0.6813921468503613</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>0.7864787124833574</v>
+        <v>0.4584744122383594</v>
       </c>
       <c r="C9">
-        <v>0.0055728</v>
+        <v>0.003248640000000001</v>
       </c>
       <c r="D9">
-        <v>0.09465014450580118</v>
+        <v>0.05517589819252906</v>
       </c>
       <c r="E9">
-        <v>0.09583780297865908</v>
+        <v>0.05586823863562147</v>
       </c>
       <c r="F9">
-        <v>0.06732663098829772</v>
+        <v>0.03924777248310065</v>
       </c>
       <c r="G9">
-        <v>0.1435400739294356</v>
+        <v>0.08367607410460136</v>
       </c>
       <c r="H9">
-        <v>0.02871151656885162</v>
+        <v>0.01673725617036932</v>
       </c>
       <c r="I9">
-        <v>1.222117681454403</v>
+        <v>0.7124282918245813</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1.120268568266862</v>
+        <v>0.65305578553231</v>
       </c>
       <c r="C10">
-        <v>0.008359199999999999</v>
+        <v>0.004872959999999999</v>
       </c>
       <c r="D10">
-        <v>0.07887512042150105</v>
+        <v>0.0459799151604409</v>
       </c>
       <c r="E10">
-        <v>0.08214668826742211</v>
+        <v>0.04788706168767552</v>
       </c>
       <c r="F10">
-        <v>0.0566528968072261</v>
+        <v>0.03302556465041399</v>
       </c>
       <c r="G10">
-        <v>0.1138421275992077</v>
+        <v>0.06636378291054586</v>
       </c>
       <c r="H10">
-        <v>0.02296921325508128</v>
+        <v>0.01338980493629546</v>
       </c>
       <c r="I10">
-        <v>1.4831138146173</v>
+        <v>0.8645748748776818</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,25 +699,25 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1.116996118700357</v>
+        <v>0.6511481250098207</v>
       </c>
       <c r="C11">
-        <v>0.007430399999999997</v>
+        <v>0.004331520000000001</v>
       </c>
       <c r="D11">
-        <v>0.06572926701791747</v>
+        <v>0.03831659596703413</v>
       </c>
       <c r="E11">
-        <v>0.1232200324011331</v>
+        <v>0.07183059253151323</v>
       </c>
       <c r="F11">
-        <v>0.03284225901868182</v>
+        <v>0.0191452548698052</v>
       </c>
       <c r="G11">
-        <v>0.1187917853209124</v>
+        <v>0.06924916477622176</v>
       </c>
       <c r="I11">
-        <v>1.465009862459002</v>
+        <v>0.854021253154395</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,25 +725,25 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>0.8682899516459802</v>
+        <v>0.5061659253006023</v>
       </c>
       <c r="C12">
-        <v>0.01393199999999999</v>
+        <v>0.0081216</v>
       </c>
       <c r="D12">
-        <v>0.04732507225290059</v>
+        <v>0.02758794909626453</v>
       </c>
       <c r="E12">
-        <v>0.1049652127861504</v>
+        <v>0.06118902326758539</v>
       </c>
       <c r="F12">
-        <v>0.03858965434695113</v>
+        <v>0.02249567447202112</v>
       </c>
       <c r="G12">
-        <v>0.1138421275992077</v>
+        <v>0.06636378291054586</v>
       </c>
       <c r="I12">
-        <v>1.18694401863119</v>
+        <v>0.6919239550470192</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,28 +751,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>0.6959409411433866</v>
+        <v>0.4056958044494776</v>
       </c>
       <c r="C13">
-        <v>0.0102168</v>
+        <v>0.00595584</v>
       </c>
       <c r="D13">
-        <v>0.05784175497576741</v>
+        <v>0.03371860445098997</v>
       </c>
       <c r="E13">
-        <v>0.07301927845993078</v>
+        <v>0.04256627705571157</v>
       </c>
       <c r="F13">
-        <v>0.02298958131307726</v>
+        <v>0.01340167840886364</v>
       </c>
       <c r="G13">
-        <v>0.2029359665898918</v>
+        <v>0.1183006564927121</v>
       </c>
       <c r="H13">
-        <v>0.005742303313770321</v>
+        <v>0.003347451234073864</v>
       </c>
       <c r="I13">
-        <v>1.068686625795824</v>
+        <v>0.6229863120918288</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.5203194810742868</v>
+        <v>0.3033180230758633</v>
       </c>
       <c r="C14">
-        <v>0.007430399999999997</v>
+        <v>0.004331520000000001</v>
       </c>
       <c r="D14">
-        <v>0.03155004816860038</v>
+        <v>0.01839196606417638</v>
       </c>
       <c r="E14">
-        <v>0.04107334413371105</v>
+        <v>0.02394353084383776</v>
       </c>
       <c r="F14">
-        <v>0.01724218598480794</v>
+        <v>0.01005125880664772</v>
       </c>
       <c r="G14">
-        <v>0.2078856243115964</v>
+        <v>0.1211860383583881</v>
       </c>
       <c r="I14">
-        <v>0.8255010836730027</v>
+        <v>0.4812223371489132</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.3425163879608517</v>
+        <v>0.1996684680205893</v>
       </c>
       <c r="C15">
-        <v>0.0102168</v>
+        <v>0.00595584</v>
       </c>
       <c r="D15">
-        <v>0.03155004816860038</v>
+        <v>0.01839196606417638</v>
       </c>
       <c r="E15">
-        <v>0.04107334413371105</v>
+        <v>0.02394353084383776</v>
       </c>
       <c r="F15">
-        <v>0.02052641188667614</v>
+        <v>0.01196578429362825</v>
       </c>
       <c r="G15">
-        <v>0.1286911007643217</v>
+        <v>0.07501992850757359</v>
       </c>
       <c r="I15">
-        <v>0.5745740929141609</v>
+        <v>0.3349455177298053</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.1712581939804258</v>
+        <v>0.09983423401029465</v>
       </c>
       <c r="C16">
-        <v>0.008359199999999999</v>
+        <v>0.004872959999999999</v>
       </c>
       <c r="D16">
-        <v>0.0184041947650169</v>
+        <v>0.01072864687076954</v>
       </c>
       <c r="E16">
-        <v>0.0319459343262197</v>
+        <v>0.0186227462118738</v>
       </c>
       <c r="F16">
-        <v>0.009031621230137492</v>
+        <v>0.00526494508919643</v>
       </c>
       <c r="G16">
-        <v>0.09899315443409365</v>
+        <v>0.05770763731351811</v>
       </c>
       <c r="I16">
-        <v>0.3379922987358935</v>
+        <v>0.1970311694956525</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.1243530835271881</v>
+        <v>0.07249109985460883</v>
       </c>
       <c r="C17">
-        <v>0.007430399999999997</v>
+        <v>0.004331520000000001</v>
       </c>
       <c r="D17">
-        <v>0.002629170680716698</v>
+        <v>0.001532663838681363</v>
       </c>
       <c r="E17">
-        <v>0.02281852451872837</v>
+        <v>0.01330196157990986</v>
       </c>
       <c r="F17">
-        <v>0.009852677705604537</v>
+        <v>0.005743576460941559</v>
       </c>
       <c r="G17">
-        <v>0.06434555038216085</v>
+        <v>0.0375099642537868</v>
       </c>
       <c r="I17">
-        <v>0.2314294068143986</v>
+        <v>0.1349107859879284</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,25 +884,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.07308470698527721</v>
+        <v>0.04260441833560349</v>
       </c>
       <c r="C18">
-        <v>0.0130032</v>
+        <v>0.007580160000000001</v>
       </c>
       <c r="D18">
-        <v>0.01051668272286679</v>
+        <v>0.006130655354725452</v>
       </c>
       <c r="E18">
-        <v>0.01369111471123702</v>
+        <v>0.007981176947945921</v>
       </c>
       <c r="F18">
-        <v>0.008210564754670455</v>
+        <v>0.0047863137174513</v>
       </c>
       <c r="G18">
-        <v>0.06434555038216085</v>
+        <v>0.0375099642537868</v>
       </c>
       <c r="I18">
-        <v>0.1828518195562123</v>
+        <v>0.106592688609513</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,22 +910,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.05781327567492082</v>
+        <v>0.03370200256398481</v>
       </c>
       <c r="C19">
-        <v>0.0055728</v>
+        <v>0.003248640000000001</v>
       </c>
       <c r="D19">
-        <v>0.002629170680716698</v>
+        <v>0.001532663838681363</v>
       </c>
       <c r="F19">
-        <v>0.008210564754670455</v>
+        <v>0.0047863137174513</v>
       </c>
       <c r="G19">
-        <v>0.06929520810386552</v>
+        <v>0.04039534611946267</v>
       </c>
       <c r="I19">
-        <v>0.1435210192141735</v>
+        <v>0.08366496623958015</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -933,25 +933,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.05126837654191088</v>
+        <v>0.02988668151900545</v>
       </c>
       <c r="C20">
-        <v>0.0027864</v>
+        <v>0.001624320000000001</v>
       </c>
       <c r="D20">
-        <v>0.01051668272286679</v>
+        <v>0.006130655354725452</v>
       </c>
       <c r="E20">
-        <v>0.004563704903745674</v>
+        <v>0.002660392315981973</v>
       </c>
       <c r="F20">
-        <v>0.01395796008293976</v>
+        <v>0.008136733319667213</v>
       </c>
       <c r="G20">
-        <v>0.09404349671238896</v>
+        <v>0.05482225544784222</v>
       </c>
       <c r="I20">
-        <v>0.1771366209638521</v>
+        <v>0.1032610379572223</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,25 +959,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.1058092026503268</v>
+        <v>0.06168102356050058</v>
       </c>
       <c r="C21">
-        <v>0.0027864</v>
+        <v>0.001624320000000001</v>
       </c>
       <c r="D21">
-        <v>0.01577502408430019</v>
+        <v>0.009195983032088191</v>
       </c>
       <c r="E21">
-        <v>0.01369111471123702</v>
+        <v>0.007981176947945921</v>
       </c>
       <c r="F21">
-        <v>0.01313690360747271</v>
+        <v>0.00765810194792208</v>
       </c>
       <c r="G21">
-        <v>0.2128352820333013</v>
+        <v>0.1240714202240641</v>
       </c>
       <c r="I21">
-        <v>0.364033927086638</v>
+        <v>0.2122120257125209</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -985,25 +985,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.278158213152921</v>
+        <v>0.162151144411625</v>
       </c>
       <c r="C22">
-        <v>0.0027864</v>
+        <v>0.001624320000000001</v>
       </c>
       <c r="D22">
-        <v>0.05258341361433402</v>
+        <v>0.03065327677362728</v>
       </c>
       <c r="E22">
-        <v>0.04107334413371105</v>
+        <v>0.02394353084383776</v>
       </c>
       <c r="F22">
-        <v>0.02134746836214316</v>
+        <v>0.01244441566537338</v>
       </c>
       <c r="G22">
-        <v>0.4009222754580795</v>
+        <v>0.2337159311197484</v>
       </c>
       <c r="I22">
-        <v>0.7968711147211887</v>
+        <v>0.4645326188142119</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1011,28 +1011,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.6392184819906334</v>
+        <v>0.3726296887263227</v>
       </c>
       <c r="C23">
-        <v>0.0055728</v>
+        <v>0.003248640000000001</v>
       </c>
       <c r="D23">
-        <v>0.0446959015721839</v>
+        <v>0.02605528525758319</v>
       </c>
       <c r="E23">
-        <v>0.1551659667273528</v>
+        <v>0.09045333874338707</v>
       </c>
       <c r="F23">
-        <v>0.05747395328269313</v>
+        <v>0.03350419602215907</v>
       </c>
       <c r="G23">
-        <v>0.3662746714061466</v>
+        <v>0.2135182580600172</v>
       </c>
       <c r="H23">
-        <v>0.02296921325508128</v>
+        <v>0.01338980493629546</v>
       </c>
       <c r="I23">
-        <v>1.291370988234091</v>
+        <v>0.7527992117457648</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1040,28 +1040,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>0.8268389238035839</v>
+        <v>0.4820022253490663</v>
       </c>
       <c r="C24">
-        <v>0.006501599999999999</v>
+        <v>0.00379008</v>
       </c>
       <c r="D24">
-        <v>0.0446959015721839</v>
+        <v>0.02605528525758319</v>
       </c>
       <c r="E24">
-        <v>0.09583780297865908</v>
+        <v>0.05586823863562147</v>
       </c>
       <c r="F24">
-        <v>0.05172655795442382</v>
+        <v>0.03015377641994321</v>
       </c>
       <c r="G24">
-        <v>0.2969794633022809</v>
+        <v>0.1731229119405543</v>
       </c>
       <c r="H24">
-        <v>0.02296921325508128</v>
+        <v>0.01338980493629546</v>
       </c>
       <c r="I24">
-        <v>1.345549462866213</v>
+        <v>0.784382322539064</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1069,28 +1069,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>0.97191752125197</v>
+        <v>0.5665751751794427</v>
       </c>
       <c r="C25">
-        <v>0.004644000000000001</v>
+        <v>0.002707199999999999</v>
       </c>
       <c r="D25">
-        <v>0.07624594974078437</v>
+        <v>0.04444725132175955</v>
       </c>
       <c r="E25">
-        <v>0.0867103931711678</v>
+        <v>0.05054745400365749</v>
       </c>
       <c r="F25">
-        <v>0.04351599319975338</v>
+        <v>0.02536746270249188</v>
       </c>
       <c r="G25">
-        <v>0.2375835706418248</v>
+        <v>0.1384983295524435</v>
       </c>
       <c r="H25">
-        <v>0.03445381988262193</v>
+        <v>0.02008470740444318</v>
       </c>
       <c r="I25">
-        <v>1.455071247888122</v>
+        <v>0.8482275801642383</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1098,28 +1098,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>0.7919327950941983</v>
+        <v>0.4616538464425088</v>
       </c>
       <c r="C26">
-        <v>0.01486079999999999</v>
+        <v>0.008663040000000002</v>
       </c>
       <c r="D26">
-        <v>0.0683584376986342</v>
+        <v>0.03984925980571546</v>
       </c>
       <c r="E26">
-        <v>0.0867103931711678</v>
+        <v>0.05054745400365749</v>
       </c>
       <c r="F26">
-        <v>0.06568451803736364</v>
+        <v>0.0382905097396104</v>
       </c>
       <c r="G26">
-        <v>0.3563753559627371</v>
+        <v>0.2077474943286653</v>
       </c>
       <c r="H26">
-        <v>0.04019612319639225</v>
+        <v>0.02343215863851704</v>
       </c>
       <c r="I26">
-        <v>1.424118423160494</v>
+        <v>0.8301837629586746</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1127,28 +1127,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.5726786741383663</v>
+        <v>0.3338405914356989</v>
       </c>
       <c r="C27">
-        <v>0.0111456</v>
+        <v>0.006497280000000003</v>
       </c>
       <c r="D27">
-        <v>0.06310009633720076</v>
+        <v>0.03678393212835276</v>
       </c>
       <c r="E27">
-        <v>0.0319459343262197</v>
+        <v>0.0186227462118738</v>
       </c>
       <c r="F27">
-        <v>0.07964247812030337</v>
+        <v>0.04642724305927762</v>
       </c>
       <c r="G27">
-        <v>0.2969794633022809</v>
+        <v>0.1731229119405543</v>
       </c>
       <c r="H27">
-        <v>0.03445381988262193</v>
+        <v>0.02008470740444318</v>
       </c>
       <c r="I27">
-        <v>1.089946066106993</v>
+        <v>0.6353794121802006</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1156,28 +1156,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.6184929680694362</v>
+        <v>0.3605478387505548</v>
       </c>
       <c r="C28">
-        <v>0.006501599999999999</v>
+        <v>0.00379008</v>
       </c>
       <c r="D28">
-        <v>0.07098760837935099</v>
+        <v>0.04138192364439682</v>
       </c>
       <c r="E28">
-        <v>0.04563704903745673</v>
+        <v>0.02660392315981972</v>
       </c>
       <c r="F28">
-        <v>0.06568451803736364</v>
+        <v>0.0382905097396104</v>
       </c>
       <c r="G28">
-        <v>0.2573822015286434</v>
+        <v>0.1500398570151472</v>
       </c>
       <c r="H28">
-        <v>0.005742303313770321</v>
+        <v>0.003347451234073864</v>
       </c>
       <c r="I28">
-        <v>1.070428248366021</v>
+        <v>0.6240015835436028</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1185,28 +1185,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>0.6828511428773656</v>
+        <v>0.3980651623595191</v>
       </c>
       <c r="C29">
-        <v>0.0102168</v>
+        <v>0.00595584</v>
       </c>
       <c r="D29">
-        <v>0.05258341361433402</v>
+        <v>0.03065327677362728</v>
       </c>
       <c r="E29">
-        <v>0.04107334413371105</v>
+        <v>0.02394353084383776</v>
       </c>
       <c r="F29">
-        <v>0.06732663098829772</v>
+        <v>0.03924777248310065</v>
       </c>
       <c r="G29">
-        <v>0.1781876779813685</v>
+        <v>0.1038737471643327</v>
       </c>
       <c r="H29">
-        <v>0.02296921325508128</v>
+        <v>0.01338980493629546</v>
       </c>
       <c r="I29">
-        <v>1.055208222850158</v>
+        <v>0.6151291345607128</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1214,28 +1214,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>0.750481767251802</v>
+        <v>0.4374901464909731</v>
       </c>
       <c r="C30">
-        <v>0.0111456</v>
+        <v>0.006497280000000003</v>
       </c>
       <c r="D30">
-        <v>0.06572926701791747</v>
+        <v>0.03831659596703413</v>
       </c>
       <c r="E30">
-        <v>0.04107334413371105</v>
+        <v>0.02394353084383776</v>
       </c>
       <c r="F30">
-        <v>0.05336867090535793</v>
+        <v>0.03111103916343344</v>
       </c>
       <c r="G30">
-        <v>0.2078856243115964</v>
+        <v>0.1211860383583881</v>
       </c>
       <c r="H30">
-        <v>0.005742303313770321</v>
+        <v>0.003347451234073864</v>
       </c>
       <c r="I30">
-        <v>1.135426576934155</v>
+        <v>0.6618920820577404</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1243,28 +1243,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>0.7024858402763958</v>
+        <v>0.4095111254944573</v>
       </c>
       <c r="C31">
-        <v>0.008359199999999999</v>
+        <v>0.004872959999999999</v>
       </c>
       <c r="D31">
-        <v>0.06572926701791747</v>
+        <v>0.03831659596703413</v>
       </c>
       <c r="E31">
-        <v>0.03650963922996539</v>
+        <v>0.02128313852785579</v>
       </c>
       <c r="F31">
-        <v>0.08046353459577046</v>
+        <v>0.04690587443102275</v>
       </c>
       <c r="G31">
-        <v>0.1979863088681873</v>
+        <v>0.1154152746270362</v>
       </c>
       <c r="H31">
-        <v>0.02871151656885162</v>
+        <v>0.01673725617036932</v>
       </c>
       <c r="I31">
-        <v>1.120245306557088</v>
+        <v>0.6530422252177757</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1272,28 +1272,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>0.7952052446607031</v>
+        <v>0.4635615069649989</v>
       </c>
       <c r="C32">
-        <v>0.0120744</v>
+        <v>0.007038720000000001</v>
       </c>
       <c r="D32">
-        <v>0.04995424293361737</v>
+        <v>0.0291206129349459</v>
       </c>
       <c r="E32">
-        <v>0.03650963922996539</v>
+        <v>0.02128313852785579</v>
       </c>
       <c r="F32">
-        <v>0.0566528968072261</v>
+        <v>0.03302556465041399</v>
       </c>
       <c r="G32">
-        <v>0.2078856243115964</v>
+        <v>0.1211860383583881</v>
       </c>
       <c r="H32">
-        <v>0.01722690994131097</v>
+        <v>0.01004235370222159</v>
       </c>
       <c r="I32">
-        <v>1.175508957884419</v>
+        <v>0.6852579351388243</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1301,28 +1301,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>0.862835869035139</v>
+        <v>0.5029864910964531</v>
       </c>
       <c r="C33">
-        <v>0.007430399999999997</v>
+        <v>0.004331520000000001</v>
       </c>
       <c r="D33">
-        <v>0.09202097382508448</v>
+        <v>0.05364323435384769</v>
       </c>
       <c r="E33">
-        <v>0.0867103931711678</v>
+        <v>0.05054745400365749</v>
       </c>
       <c r="F33">
-        <v>0.06896874393923177</v>
+        <v>0.0402050352265909</v>
       </c>
       <c r="G33">
-        <v>0.123741443042617</v>
+        <v>0.07213454664189768</v>
       </c>
       <c r="H33">
-        <v>0.02871151656885162</v>
+        <v>0.01673725617036932</v>
       </c>
       <c r="I33">
-        <v>1.270419339582091</v>
+        <v>0.7405855374928162</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1.031912429971228</v>
+        <v>0.6015489514250877</v>
       </c>
       <c r="C34">
-        <v>0.0102168</v>
+        <v>0.00595584</v>
       </c>
       <c r="D34">
-        <v>0.08413346178293432</v>
+        <v>0.04904524283780361</v>
       </c>
       <c r="E34">
-        <v>0.1004015078824048</v>
+        <v>0.05852863095160338</v>
       </c>
       <c r="F34">
-        <v>0.04680021910162158</v>
+        <v>0.02728198818947241</v>
       </c>
       <c r="G34">
-        <v>0.07919452354727488</v>
+        <v>0.04616610985081453</v>
       </c>
       <c r="H34">
-        <v>0.005742303313770321</v>
+        <v>0.003347451234073864</v>
       </c>
       <c r="I34">
-        <v>1.358401245599234</v>
+        <v>0.7918742144888554</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,25 +1359,25 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1.086453256079643</v>
+        <v>0.633343293466583</v>
       </c>
       <c r="C35">
-        <v>0.006501599999999999</v>
+        <v>0.00379008</v>
       </c>
       <c r="D35">
-        <v>0.06047092565648409</v>
+        <v>0.0352512682896713</v>
       </c>
       <c r="E35">
-        <v>0.1232200324011331</v>
+        <v>0.07183059253151323</v>
       </c>
       <c r="F35">
-        <v>0.02463169426401135</v>
+        <v>0.0143589411523539</v>
       </c>
       <c r="G35">
-        <v>0.108892469877503</v>
+        <v>0.06347840104486993</v>
       </c>
       <c r="I35">
-        <v>1.410169978278775</v>
+        <v>0.8220525764849914</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1385,25 +1385,25 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1.014459365616535</v>
+        <v>0.5913747619718096</v>
       </c>
       <c r="C36">
-        <v>0.004644000000000001</v>
+        <v>0.002707199999999999</v>
       </c>
       <c r="D36">
-        <v>0.06310009633720076</v>
+        <v>0.03678393212835276</v>
       </c>
       <c r="E36">
-        <v>0.09127409807491346</v>
+        <v>0.05320784631963944</v>
       </c>
       <c r="F36">
-        <v>0.03448437196961589</v>
+        <v>0.02010251761329545</v>
       </c>
       <c r="G36">
-        <v>0.1633387048162545</v>
+        <v>0.09521760156730488</v>
       </c>
       <c r="I36">
-        <v>1.37130063681452</v>
+        <v>0.7993938596004021</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1411,25 +1411,25 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.62831031676895</v>
+        <v>0.3662708203180237</v>
       </c>
       <c r="C37">
-        <v>0.0102168</v>
+        <v>0.00595584</v>
       </c>
       <c r="D37">
-        <v>0.05784175497576741</v>
+        <v>0.03371860445098997</v>
       </c>
       <c r="E37">
-        <v>0.1095289176898962</v>
+        <v>0.06384941558356737</v>
       </c>
       <c r="F37">
-        <v>0.01642112950934091</v>
+        <v>0.0095726274349026</v>
       </c>
       <c r="G37">
-        <v>0.1682883625379591</v>
+        <v>0.09810298343298088</v>
       </c>
       <c r="I37">
-        <v>0.9906072814819136</v>
+        <v>0.5774702912204644</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.5388633619511484</v>
+        <v>0.314128099369972</v>
       </c>
       <c r="C38">
-        <v>0.008359199999999999</v>
+        <v>0.004872959999999999</v>
       </c>
       <c r="D38">
-        <v>0.04732507225290059</v>
+        <v>0.02758794909626453</v>
       </c>
       <c r="E38">
-        <v>0.04563704903745673</v>
+        <v>0.02660392315981972</v>
       </c>
       <c r="F38">
-        <v>0.02216852483761019</v>
+        <v>0.01292304703711851</v>
       </c>
       <c r="G38">
-        <v>0.1633387048162545</v>
+        <v>0.09521760156730488</v>
       </c>
       <c r="I38">
-        <v>0.8256919128953704</v>
+        <v>0.4813335802304797</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,28 +1463,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.3741500671037327</v>
+        <v>0.2181091864046564</v>
       </c>
       <c r="C39">
-        <v>0.0130032</v>
+        <v>0.007580160000000001</v>
       </c>
       <c r="D39">
-        <v>0.0289208774878837</v>
+        <v>0.01685930222549499</v>
       </c>
       <c r="E39">
-        <v>0.05932816374869375</v>
+        <v>0.03458510010776564</v>
       </c>
       <c r="F39">
-        <v>0.01313690360747271</v>
+        <v>0.00765810194792208</v>
       </c>
       <c r="G39">
-        <v>0.1336407584860262</v>
+        <v>0.07790531037324952</v>
       </c>
       <c r="H39">
-        <v>0.005742303313770321</v>
+        <v>0.003347451234073864</v>
       </c>
       <c r="I39">
-        <v>0.6279222737475795</v>
+        <v>0.3660446122931625</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1492,25 +1492,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.2334347357440197</v>
+        <v>0.1360797839375991</v>
       </c>
       <c r="C40">
-        <v>0.008359199999999999</v>
+        <v>0.004872959999999999</v>
       </c>
       <c r="D40">
-        <v>0.01051668272286679</v>
+        <v>0.006130655354725452</v>
       </c>
       <c r="E40">
-        <v>0.0319459343262197</v>
+        <v>0.0186227462118738</v>
       </c>
       <c r="F40">
-        <v>0.01231584713200568</v>
+        <v>0.007179470576176949</v>
       </c>
       <c r="G40">
-        <v>0.06434555038216085</v>
+        <v>0.0375099642537868</v>
       </c>
       <c r="I40">
-        <v>0.3609179503072726</v>
+        <v>0.2103955803341622</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1518,25 +1518,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.1254439000493564</v>
+        <v>0.07312698669543877</v>
       </c>
       <c r="C41">
-        <v>0.0130032</v>
+        <v>0.007580160000000001</v>
       </c>
       <c r="D41">
-        <v>0.01051668272286679</v>
+        <v>0.006130655354725452</v>
       </c>
       <c r="E41">
-        <v>0.02281852451872837</v>
+        <v>0.01330196157990986</v>
       </c>
       <c r="F41">
-        <v>0.01313690360747271</v>
+        <v>0.00765810194792208</v>
       </c>
       <c r="G41">
-        <v>0.07424486582557022</v>
+        <v>0.04328072798513857</v>
       </c>
       <c r="I41">
-        <v>0.2591640767239946</v>
+        <v>0.1510785935631347</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1544,25 +1544,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.07308470698527721</v>
+        <v>0.04260441833560349</v>
       </c>
       <c r="C42">
-        <v>0.007430399999999997</v>
+        <v>0.004331520000000001</v>
       </c>
       <c r="D42">
-        <v>0.007887512042150095</v>
+        <v>0.004597991516044096</v>
       </c>
       <c r="E42">
-        <v>0.0182548196149827</v>
+        <v>0.01064156926392789</v>
       </c>
       <c r="F42">
-        <v>0.01231584713200568</v>
+        <v>0.007179470576176949</v>
       </c>
       <c r="G42">
-        <v>0.04949657721704682</v>
+        <v>0.02885381865675905</v>
       </c>
       <c r="I42">
-        <v>0.1684698629914625</v>
+        <v>0.09820878834851147</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1570,22 +1570,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.05563164263058417</v>
+        <v>0.03243022888232504</v>
       </c>
       <c r="C43">
-        <v>0.0055728</v>
+        <v>0.003248640000000001</v>
       </c>
       <c r="D43">
-        <v>0.005258341361433395</v>
+        <v>0.003065327677362726</v>
       </c>
       <c r="F43">
-        <v>0.008210564754670455</v>
+        <v>0.0047863137174513</v>
       </c>
       <c r="G43">
-        <v>0.08909383899068427</v>
+        <v>0.05193687358216634</v>
       </c>
       <c r="I43">
-        <v>0.1637671877373723</v>
+        <v>0.09546738385930542</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,25 +1593,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.04254184436456437</v>
+        <v>0.0247995867923662</v>
       </c>
       <c r="C44">
-        <v>0.0027864</v>
+        <v>0.001624320000000001</v>
       </c>
       <c r="D44">
-        <v>0.005258341361433395</v>
+        <v>0.003065327677362726</v>
       </c>
       <c r="E44">
-        <v>0.004563704903745674</v>
+        <v>0.002660392315981973</v>
       </c>
       <c r="F44">
-        <v>0.01313690360747271</v>
+        <v>0.00765810194792208</v>
       </c>
       <c r="G44">
-        <v>0.1138421275992077</v>
+        <v>0.06636378291054586</v>
       </c>
       <c r="I44">
-        <v>0.1821293218364239</v>
+        <v>0.1061715116441788</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1619,25 +1619,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.1287163496158613</v>
+        <v>0.07503464721792846</v>
       </c>
       <c r="C45">
-        <v>0.004644000000000001</v>
+        <v>0.002707199999999999</v>
       </c>
       <c r="D45">
-        <v>0.02103336544573358</v>
+        <v>0.0122613107094509</v>
       </c>
       <c r="E45">
-        <v>0.02281852451872837</v>
+        <v>0.01330196157990986</v>
       </c>
       <c r="F45">
-        <v>0.01560007303387385</v>
+        <v>0.009093996063157469</v>
       </c>
       <c r="G45">
-        <v>0.1880869934247779</v>
+        <v>0.1096445108956844</v>
       </c>
       <c r="I45">
-        <v>0.380899306038975</v>
+        <v>0.2220436264661311</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1645,25 +1645,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.2279806531331784</v>
+        <v>0.1329003497334496</v>
       </c>
       <c r="D46">
-        <v>0.05258341361433402</v>
+        <v>0.03065327677362728</v>
       </c>
       <c r="E46">
-        <v>0.05476445884494808</v>
+        <v>0.03192470779178368</v>
       </c>
       <c r="F46">
-        <v>0.02709486369041249</v>
+        <v>0.01579483526758929</v>
       </c>
       <c r="G46">
-        <v>0.4108215909014887</v>
+        <v>0.2394866948511002</v>
       </c>
       <c r="H46">
-        <v>0.01722690994131097</v>
+        <v>0.01004235370222159</v>
       </c>
       <c r="I46">
-        <v>0.7904718901256726</v>
+        <v>0.4608022181197717</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1671,28 +1671,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.6730337941778523</v>
+        <v>0.3923421807920499</v>
       </c>
       <c r="C47">
-        <v>0.007430399999999997</v>
+        <v>0.004331520000000001</v>
       </c>
       <c r="D47">
-        <v>0.06047092565648409</v>
+        <v>0.0352512682896713</v>
       </c>
       <c r="E47">
-        <v>0.1551659667273528</v>
+        <v>0.09045333874338707</v>
       </c>
       <c r="F47">
-        <v>0.05829500975816022</v>
+        <v>0.03398282739390422</v>
       </c>
       <c r="G47">
-        <v>0.4207209063448978</v>
+        <v>0.245257458582452</v>
       </c>
       <c r="H47">
-        <v>0.01148460662754064</v>
+        <v>0.006694902468147728</v>
       </c>
       <c r="I47">
-        <v>1.386601609292288</v>
+        <v>0.8083134962696124</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1700,28 +1700,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>0.803931776838049</v>
+        <v>0.4686486016916386</v>
       </c>
       <c r="C48">
-        <v>0.01393199999999999</v>
+        <v>0.0081216</v>
       </c>
       <c r="D48">
-        <v>0.03943756021075052</v>
+        <v>0.02298995758022045</v>
       </c>
       <c r="E48">
-        <v>0.1004015078824048</v>
+        <v>0.05852863095160338</v>
       </c>
       <c r="F48">
-        <v>0.05336867090535793</v>
+        <v>0.03111103916343344</v>
       </c>
       <c r="G48">
-        <v>0.3118284364673949</v>
+        <v>0.1817790575375821</v>
       </c>
       <c r="H48">
-        <v>0.02871151656885162</v>
+        <v>0.01673725617036932</v>
       </c>
       <c r="I48">
-        <v>1.351611468872809</v>
+        <v>0.7879161430948474</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1729,28 +1729,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1.022095081271713</v>
+        <v>0.5958259698576192</v>
       </c>
       <c r="C49">
-        <v>0.003715199999999998</v>
+        <v>0.002165760000000001</v>
       </c>
       <c r="D49">
-        <v>0.07361677906006758</v>
+        <v>0.04291458748307816</v>
       </c>
       <c r="E49">
-        <v>0.09127409807491346</v>
+        <v>0.05320784631963944</v>
       </c>
       <c r="F49">
-        <v>0.04844233205255563</v>
+        <v>0.02823925093296266</v>
       </c>
       <c r="G49">
-        <v>0.282130490137167</v>
+        <v>0.1644667663435267</v>
       </c>
       <c r="H49">
-        <v>0.005742303313770321</v>
+        <v>0.003347451234073864</v>
       </c>
       <c r="I49">
-        <v>1.527016283910187</v>
+        <v>0.8901676321709</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_SOx.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.3866191992245807</v>
+        <v>0.6632164454783362</v>
       </c>
       <c r="C2">
-        <v>0.006497280000000003</v>
+        <v>0.0111456</v>
       </c>
       <c r="D2">
-        <v>0.03371860445098997</v>
+        <v>0.05784175497576741</v>
       </c>
       <c r="E2">
-        <v>0.04256627705571157</v>
+        <v>0.07301927845993078</v>
       </c>
       <c r="F2">
-        <v>0.03063240779168832</v>
+        <v>0.05254761442989086</v>
       </c>
       <c r="G2">
-        <v>0.1702375300748785</v>
+        <v>0.2920298055805764</v>
       </c>
       <c r="H2">
-        <v>0.02677960987259091</v>
+        <v>0.04593842651016257</v>
       </c>
       <c r="I2">
-        <v>0.6970509084704399</v>
+        <v>1.195738925434664</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>0.2791543231243271</v>
+        <v>0.4788684532318913</v>
       </c>
       <c r="C3">
-        <v>0.004872959999999999</v>
+        <v>0.008359199999999999</v>
       </c>
       <c r="D3">
-        <v>0.03065327677362728</v>
+        <v>0.05258341361433402</v>
       </c>
       <c r="E3">
-        <v>0.01330196157990986</v>
+        <v>0.02281852451872837</v>
       </c>
       <c r="F3">
-        <v>0.03685461562437502</v>
+        <v>0.06322134861096249</v>
       </c>
       <c r="G3">
-        <v>0.1413837114181194</v>
+        <v>0.2425332283635293</v>
       </c>
       <c r="H3">
-        <v>0.02343215863851704</v>
+        <v>0.04019612319639225</v>
       </c>
       <c r="I3">
-        <v>0.5296530071588756</v>
+        <v>0.9085802915358376</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.3306611572315489</v>
+        <v>0.5672245915275247</v>
       </c>
       <c r="C4">
-        <v>0.003248640000000001</v>
+        <v>0.0055728</v>
       </c>
       <c r="D4">
-        <v>0.03831659596703413</v>
+        <v>0.06572926701791747</v>
       </c>
       <c r="E4">
-        <v>0.02394353084383776</v>
+        <v>0.04107334413371105</v>
       </c>
       <c r="F4">
-        <v>0.03494009013739453</v>
+        <v>0.0599371227090943</v>
       </c>
       <c r="G4">
-        <v>0.1384983295524435</v>
+        <v>0.2375835706418248</v>
       </c>
       <c r="H4">
-        <v>0.003347451234073864</v>
+        <v>0.005742303313770321</v>
       </c>
       <c r="I4">
-        <v>0.5729557949663328</v>
+        <v>0.9828629993438428</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>0.4158699939027563</v>
+        <v>0.7133940054980793</v>
       </c>
       <c r="C5">
-        <v>0.004331520000000001</v>
+        <v>0.007430399999999997</v>
       </c>
       <c r="D5">
-        <v>0.0352512682896713</v>
+        <v>0.06047092565648409</v>
       </c>
       <c r="E5">
-        <v>0.02394353084383776</v>
+        <v>0.04107334413371105</v>
       </c>
       <c r="F5">
-        <v>0.03350419602215907</v>
+        <v>0.05747395328269313</v>
       </c>
       <c r="G5">
-        <v>0.1298421839554158</v>
+        <v>0.2227345974767106</v>
       </c>
       <c r="H5">
-        <v>0.003347451234073864</v>
+        <v>0.005742303313770321</v>
       </c>
       <c r="I5">
-        <v>0.646090144247914</v>
+        <v>1.108319529361448</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>0.4241365228335455</v>
+        <v>0.7275746202862674</v>
       </c>
       <c r="C6">
-        <v>0.007580160000000001</v>
+        <v>0.0130032</v>
       </c>
       <c r="D6">
-        <v>0.03678393212835276</v>
+        <v>0.06310009633720076</v>
       </c>
       <c r="E6">
-        <v>0.02660392315981972</v>
+        <v>0.04563704903745673</v>
       </c>
       <c r="F6">
-        <v>0.04403408620055196</v>
+        <v>0.07553719574296806</v>
       </c>
       <c r="G6">
-        <v>0.1442690932837954</v>
+        <v>0.247482886085234</v>
       </c>
       <c r="H6">
-        <v>0.01338980493629546</v>
+        <v>0.02296921325508128</v>
       </c>
       <c r="I6">
-        <v>0.6967975225423608</v>
+        <v>1.195304260744208</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.3789885571346218</v>
+        <v>0.6501266472123168</v>
       </c>
       <c r="C7">
-        <v>0.004331520000000001</v>
+        <v>0.007430399999999997</v>
       </c>
       <c r="D7">
-        <v>0.0459799151604409</v>
+        <v>0.07887512042150105</v>
       </c>
       <c r="E7">
-        <v>0.02926431547580169</v>
+        <v>0.05020075394120239</v>
       </c>
       <c r="F7">
-        <v>0.04834176854625814</v>
+        <v>0.08292670402217162</v>
       </c>
       <c r="G7">
-        <v>0.1298421839554158</v>
+        <v>0.2227345974767106</v>
       </c>
       <c r="H7">
-        <v>0.05355921974518182</v>
+        <v>0.09187685302032514</v>
       </c>
       <c r="I7">
-        <v>0.6903074800177202</v>
+        <v>1.184171076094227</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>0.4177776544252461</v>
+        <v>0.7166664550645842</v>
       </c>
       <c r="C8">
-        <v>0.004872959999999999</v>
+        <v>0.008359199999999999</v>
       </c>
       <c r="D8">
-        <v>0.05977388970857313</v>
+        <v>0.1025376565479514</v>
       </c>
       <c r="E8">
-        <v>0.03192470779178368</v>
+        <v>0.05476445884494808</v>
       </c>
       <c r="F8">
-        <v>0.03350419602215907</v>
+        <v>0.05747395328269313</v>
       </c>
       <c r="G8">
-        <v>0.1067591290300086</v>
+        <v>0.1831373357030733</v>
       </c>
       <c r="H8">
-        <v>0.02677960987259091</v>
+        <v>0.04593842651016257</v>
       </c>
       <c r="I8">
-        <v>0.6813921468503613</v>
+        <v>1.168877485953413</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>0.4584744122383594</v>
+        <v>0.7864787124833574</v>
       </c>
       <c r="C9">
-        <v>0.003248640000000001</v>
+        <v>0.0055728</v>
       </c>
       <c r="D9">
-        <v>0.05517589819252906</v>
+        <v>0.09465014450580118</v>
       </c>
       <c r="E9">
-        <v>0.05586823863562147</v>
+        <v>0.09583780297865908</v>
       </c>
       <c r="F9">
-        <v>0.03924777248310065</v>
+        <v>0.06732663098829772</v>
       </c>
       <c r="G9">
-        <v>0.08367607410460136</v>
+        <v>0.1435400739294356</v>
       </c>
       <c r="H9">
-        <v>0.01673725617036932</v>
+        <v>0.02871151656885162</v>
       </c>
       <c r="I9">
-        <v>0.7124282918245813</v>
+        <v>1.222117681454403</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>0.65305578553231</v>
+        <v>1.120268568266862</v>
       </c>
       <c r="C10">
-        <v>0.004872959999999999</v>
+        <v>0.008359199999999999</v>
       </c>
       <c r="D10">
-        <v>0.0459799151604409</v>
+        <v>0.07887512042150105</v>
       </c>
       <c r="E10">
-        <v>0.04788706168767552</v>
+        <v>0.08214668826742211</v>
       </c>
       <c r="F10">
-        <v>0.03302556465041399</v>
+        <v>0.0566528968072261</v>
       </c>
       <c r="G10">
-        <v>0.06636378291054586</v>
+        <v>0.1138421275992077</v>
       </c>
       <c r="H10">
-        <v>0.01338980493629546</v>
+        <v>0.02296921325508128</v>
       </c>
       <c r="I10">
-        <v>0.8645748748776818</v>
+        <v>1.4831138146173</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,25 +699,25 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>0.6511481250098207</v>
+        <v>1.116996118700357</v>
       </c>
       <c r="C11">
-        <v>0.004331520000000001</v>
+        <v>0.007430399999999997</v>
       </c>
       <c r="D11">
-        <v>0.03831659596703413</v>
+        <v>0.06572926701791747</v>
       </c>
       <c r="E11">
-        <v>0.07183059253151323</v>
+        <v>0.1232200324011331</v>
       </c>
       <c r="F11">
-        <v>0.0191452548698052</v>
+        <v>0.03284225901868182</v>
       </c>
       <c r="G11">
-        <v>0.06924916477622176</v>
+        <v>0.1187917853209124</v>
       </c>
       <c r="I11">
-        <v>0.854021253154395</v>
+        <v>1.465009862459002</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,25 +725,25 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>0.5061659253006023</v>
+        <v>0.8682899516459802</v>
       </c>
       <c r="C12">
-        <v>0.0081216</v>
+        <v>0.01393199999999999</v>
       </c>
       <c r="D12">
-        <v>0.02758794909626453</v>
+        <v>0.04732507225290059</v>
       </c>
       <c r="E12">
-        <v>0.06118902326758539</v>
+        <v>0.1049652127861504</v>
       </c>
       <c r="F12">
-        <v>0.02249567447202112</v>
+        <v>0.03858965434695113</v>
       </c>
       <c r="G12">
-        <v>0.06636378291054586</v>
+        <v>0.1138421275992077</v>
       </c>
       <c r="I12">
-        <v>0.6919239550470192</v>
+        <v>1.18694401863119</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,28 +751,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>0.4056958044494776</v>
+        <v>0.6959409411433866</v>
       </c>
       <c r="C13">
-        <v>0.00595584</v>
+        <v>0.0102168</v>
       </c>
       <c r="D13">
-        <v>0.03371860445098997</v>
+        <v>0.05784175497576741</v>
       </c>
       <c r="E13">
-        <v>0.04256627705571157</v>
+        <v>0.07301927845993078</v>
       </c>
       <c r="F13">
-        <v>0.01340167840886364</v>
+        <v>0.02298958131307726</v>
       </c>
       <c r="G13">
-        <v>0.1183006564927121</v>
+        <v>0.2029359665898918</v>
       </c>
       <c r="H13">
-        <v>0.003347451234073864</v>
+        <v>0.005742303313770321</v>
       </c>
       <c r="I13">
-        <v>0.6229863120918288</v>
+        <v>1.068686625795824</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.3033180230758633</v>
+        <v>0.5203194810742868</v>
       </c>
       <c r="C14">
-        <v>0.004331520000000001</v>
+        <v>0.007430399999999997</v>
       </c>
       <c r="D14">
-        <v>0.01839196606417638</v>
+        <v>0.03155004816860038</v>
       </c>
       <c r="E14">
-        <v>0.02394353084383776</v>
+        <v>0.04107334413371105</v>
       </c>
       <c r="F14">
-        <v>0.01005125880664772</v>
+        <v>0.01724218598480794</v>
       </c>
       <c r="G14">
-        <v>0.1211860383583881</v>
+        <v>0.2078856243115964</v>
       </c>
       <c r="I14">
-        <v>0.4812223371489132</v>
+        <v>0.8255010836730027</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.1996684680205893</v>
+        <v>0.3425163879608517</v>
       </c>
       <c r="C15">
-        <v>0.00595584</v>
+        <v>0.0102168</v>
       </c>
       <c r="D15">
-        <v>0.01839196606417638</v>
+        <v>0.03155004816860038</v>
       </c>
       <c r="E15">
-        <v>0.02394353084383776</v>
+        <v>0.04107334413371105</v>
       </c>
       <c r="F15">
-        <v>0.01196578429362825</v>
+        <v>0.02052641188667614</v>
       </c>
       <c r="G15">
-        <v>0.07501992850757359</v>
+        <v>0.1286911007643217</v>
       </c>
       <c r="I15">
-        <v>0.3349455177298053</v>
+        <v>0.5745740929141609</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.09983423401029465</v>
+        <v>0.1712581939804258</v>
       </c>
       <c r="C16">
-        <v>0.004872959999999999</v>
+        <v>0.008359199999999999</v>
       </c>
       <c r="D16">
-        <v>0.01072864687076954</v>
+        <v>0.0184041947650169</v>
       </c>
       <c r="E16">
-        <v>0.0186227462118738</v>
+        <v>0.0319459343262197</v>
       </c>
       <c r="F16">
-        <v>0.00526494508919643</v>
+        <v>0.009031621230137492</v>
       </c>
       <c r="G16">
-        <v>0.05770763731351811</v>
+        <v>0.09899315443409365</v>
       </c>
       <c r="I16">
-        <v>0.1970311694956525</v>
+        <v>0.3379922987358935</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.07249109985460883</v>
+        <v>0.1243530835271881</v>
       </c>
       <c r="C17">
-        <v>0.004331520000000001</v>
+        <v>0.007430399999999997</v>
       </c>
       <c r="D17">
-        <v>0.001532663838681363</v>
+        <v>0.002629170680716698</v>
       </c>
       <c r="E17">
-        <v>0.01330196157990986</v>
+        <v>0.02281852451872837</v>
       </c>
       <c r="F17">
-        <v>0.005743576460941559</v>
+        <v>0.009852677705604537</v>
       </c>
       <c r="G17">
-        <v>0.0375099642537868</v>
+        <v>0.06434555038216085</v>
       </c>
       <c r="I17">
-        <v>0.1349107859879284</v>
+        <v>0.2314294068143986</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,25 +884,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.04260441833560349</v>
+        <v>0.07308470698527721</v>
       </c>
       <c r="C18">
-        <v>0.007580160000000001</v>
+        <v>0.0130032</v>
       </c>
       <c r="D18">
-        <v>0.006130655354725452</v>
+        <v>0.01051668272286679</v>
       </c>
       <c r="E18">
-        <v>0.007981176947945921</v>
+        <v>0.01369111471123702</v>
       </c>
       <c r="F18">
-        <v>0.0047863137174513</v>
+        <v>0.008210564754670455</v>
       </c>
       <c r="G18">
-        <v>0.0375099642537868</v>
+        <v>0.06434555038216085</v>
       </c>
       <c r="I18">
-        <v>0.106592688609513</v>
+        <v>0.1828518195562123</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,22 +910,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.03370200256398481</v>
+        <v>0.05781327567492082</v>
       </c>
       <c r="C19">
-        <v>0.003248640000000001</v>
+        <v>0.0055728</v>
       </c>
       <c r="D19">
-        <v>0.001532663838681363</v>
+        <v>0.002629170680716698</v>
       </c>
       <c r="F19">
-        <v>0.0047863137174513</v>
+        <v>0.008210564754670455</v>
       </c>
       <c r="G19">
-        <v>0.04039534611946267</v>
+        <v>0.06929520810386552</v>
       </c>
       <c r="I19">
-        <v>0.08366496623958015</v>
+        <v>0.1435210192141735</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -933,25 +933,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.02988668151900545</v>
+        <v>0.05126837654191088</v>
       </c>
       <c r="C20">
-        <v>0.001624320000000001</v>
+        <v>0.0027864</v>
       </c>
       <c r="D20">
-        <v>0.006130655354725452</v>
+        <v>0.01051668272286679</v>
       </c>
       <c r="E20">
-        <v>0.002660392315981973</v>
+        <v>0.004563704903745674</v>
       </c>
       <c r="F20">
-        <v>0.008136733319667213</v>
+        <v>0.01395796008293976</v>
       </c>
       <c r="G20">
-        <v>0.05482225544784222</v>
+        <v>0.09404349671238896</v>
       </c>
       <c r="I20">
-        <v>0.1032610379572223</v>
+        <v>0.1771366209638521</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,25 +959,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.06168102356050058</v>
+        <v>0.1058092026503268</v>
       </c>
       <c r="C21">
-        <v>0.001624320000000001</v>
+        <v>0.0027864</v>
       </c>
       <c r="D21">
-        <v>0.009195983032088191</v>
+        <v>0.01577502408430019</v>
       </c>
       <c r="E21">
-        <v>0.007981176947945921</v>
+        <v>0.01369111471123702</v>
       </c>
       <c r="F21">
-        <v>0.00765810194792208</v>
+        <v>0.01313690360747271</v>
       </c>
       <c r="G21">
-        <v>0.1240714202240641</v>
+        <v>0.2128352820333013</v>
       </c>
       <c r="I21">
-        <v>0.2122120257125209</v>
+        <v>0.364033927086638</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -985,25 +985,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.162151144411625</v>
+        <v>0.278158213152921</v>
       </c>
       <c r="C22">
-        <v>0.001624320000000001</v>
+        <v>0.0027864</v>
       </c>
       <c r="D22">
-        <v>0.03065327677362728</v>
+        <v>0.05258341361433402</v>
       </c>
       <c r="E22">
-        <v>0.02394353084383776</v>
+        <v>0.04107334413371105</v>
       </c>
       <c r="F22">
-        <v>0.01244441566537338</v>
+        <v>0.02134746836214316</v>
       </c>
       <c r="G22">
-        <v>0.2337159311197484</v>
+        <v>0.4009222754580795</v>
       </c>
       <c r="I22">
-        <v>0.4645326188142119</v>
+        <v>0.7968711147211887</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1011,28 +1011,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.3726296887263227</v>
+        <v>0.6392184819906334</v>
       </c>
       <c r="C23">
-        <v>0.003248640000000001</v>
+        <v>0.0055728</v>
       </c>
       <c r="D23">
-        <v>0.02605528525758319</v>
+        <v>0.0446959015721839</v>
       </c>
       <c r="E23">
-        <v>0.09045333874338707</v>
+        <v>0.1551659667273528</v>
       </c>
       <c r="F23">
-        <v>0.03350419602215907</v>
+        <v>0.05747395328269313</v>
       </c>
       <c r="G23">
-        <v>0.2135182580600172</v>
+        <v>0.3662746714061466</v>
       </c>
       <c r="H23">
-        <v>0.01338980493629546</v>
+        <v>0.02296921325508128</v>
       </c>
       <c r="I23">
-        <v>0.7527992117457648</v>
+        <v>1.291370988234091</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1040,28 +1040,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>0.4820022253490663</v>
+        <v>0.8268389238035839</v>
       </c>
       <c r="C24">
-        <v>0.00379008</v>
+        <v>0.006501599999999999</v>
       </c>
       <c r="D24">
-        <v>0.02605528525758319</v>
+        <v>0.0446959015721839</v>
       </c>
       <c r="E24">
-        <v>0.05586823863562147</v>
+        <v>0.09583780297865908</v>
       </c>
       <c r="F24">
-        <v>0.03015377641994321</v>
+        <v>0.05172655795442382</v>
       </c>
       <c r="G24">
-        <v>0.1731229119405543</v>
+        <v>0.2969794633022809</v>
       </c>
       <c r="H24">
-        <v>0.01338980493629546</v>
+        <v>0.02296921325508128</v>
       </c>
       <c r="I24">
-        <v>0.784382322539064</v>
+        <v>1.345549462866213</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1069,28 +1069,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>0.5665751751794427</v>
+        <v>0.97191752125197</v>
       </c>
       <c r="C25">
-        <v>0.002707199999999999</v>
+        <v>0.004644000000000001</v>
       </c>
       <c r="D25">
-        <v>0.04444725132175955</v>
+        <v>0.07624594974078437</v>
       </c>
       <c r="E25">
-        <v>0.05054745400365749</v>
+        <v>0.0867103931711678</v>
       </c>
       <c r="F25">
-        <v>0.02536746270249188</v>
+        <v>0.04351599319975338</v>
       </c>
       <c r="G25">
-        <v>0.1384983295524435</v>
+        <v>0.2375835706418248</v>
       </c>
       <c r="H25">
-        <v>0.02008470740444318</v>
+        <v>0.03445381988262193</v>
       </c>
       <c r="I25">
-        <v>0.8482275801642383</v>
+        <v>1.455071247888122</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1098,28 +1098,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>0.4616538464425088</v>
+        <v>0.7919327950941983</v>
       </c>
       <c r="C26">
-        <v>0.008663040000000002</v>
+        <v>0.01486079999999999</v>
       </c>
       <c r="D26">
-        <v>0.03984925980571546</v>
+        <v>0.0683584376986342</v>
       </c>
       <c r="E26">
-        <v>0.05054745400365749</v>
+        <v>0.0867103931711678</v>
       </c>
       <c r="F26">
-        <v>0.0382905097396104</v>
+        <v>0.06568451803736364</v>
       </c>
       <c r="G26">
-        <v>0.2077474943286653</v>
+        <v>0.3563753559627371</v>
       </c>
       <c r="H26">
-        <v>0.02343215863851704</v>
+        <v>0.04019612319639225</v>
       </c>
       <c r="I26">
-        <v>0.8301837629586746</v>
+        <v>1.424118423160494</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1127,28 +1127,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.3338405914356989</v>
+        <v>0.5726786741383663</v>
       </c>
       <c r="C27">
-        <v>0.006497280000000003</v>
+        <v>0.0111456</v>
       </c>
       <c r="D27">
-        <v>0.03678393212835276</v>
+        <v>0.06310009633720076</v>
       </c>
       <c r="E27">
-        <v>0.0186227462118738</v>
+        <v>0.0319459343262197</v>
       </c>
       <c r="F27">
-        <v>0.04642724305927762</v>
+        <v>0.07964247812030337</v>
       </c>
       <c r="G27">
-        <v>0.1731229119405543</v>
+        <v>0.2969794633022809</v>
       </c>
       <c r="H27">
-        <v>0.02008470740444318</v>
+        <v>0.03445381988262193</v>
       </c>
       <c r="I27">
-        <v>0.6353794121802006</v>
+        <v>1.089946066106993</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1156,28 +1156,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.3605478387505548</v>
+        <v>0.6184929680694362</v>
       </c>
       <c r="C28">
-        <v>0.00379008</v>
+        <v>0.006501599999999999</v>
       </c>
       <c r="D28">
-        <v>0.04138192364439682</v>
+        <v>0.07098760837935099</v>
       </c>
       <c r="E28">
-        <v>0.02660392315981972</v>
+        <v>0.04563704903745673</v>
       </c>
       <c r="F28">
-        <v>0.0382905097396104</v>
+        <v>0.06568451803736364</v>
       </c>
       <c r="G28">
-        <v>0.1500398570151472</v>
+        <v>0.2573822015286434</v>
       </c>
       <c r="H28">
-        <v>0.003347451234073864</v>
+        <v>0.005742303313770321</v>
       </c>
       <c r="I28">
-        <v>0.6240015835436028</v>
+        <v>1.070428248366021</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1185,28 +1185,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>0.3980651623595191</v>
+        <v>0.6828511428773656</v>
       </c>
       <c r="C29">
-        <v>0.00595584</v>
+        <v>0.0102168</v>
       </c>
       <c r="D29">
-        <v>0.03065327677362728</v>
+        <v>0.05258341361433402</v>
       </c>
       <c r="E29">
-        <v>0.02394353084383776</v>
+        <v>0.04107334413371105</v>
       </c>
       <c r="F29">
-        <v>0.03924777248310065</v>
+        <v>0.06732663098829772</v>
       </c>
       <c r="G29">
-        <v>0.1038737471643327</v>
+        <v>0.1781876779813685</v>
       </c>
       <c r="H29">
-        <v>0.01338980493629546</v>
+        <v>0.02296921325508128</v>
       </c>
       <c r="I29">
-        <v>0.6151291345607128</v>
+        <v>1.055208222850158</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1214,28 +1214,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>0.4374901464909731</v>
+        <v>0.750481767251802</v>
       </c>
       <c r="C30">
-        <v>0.006497280000000003</v>
+        <v>0.0111456</v>
       </c>
       <c r="D30">
-        <v>0.03831659596703413</v>
+        <v>0.06572926701791747</v>
       </c>
       <c r="E30">
-        <v>0.02394353084383776</v>
+        <v>0.04107334413371105</v>
       </c>
       <c r="F30">
-        <v>0.03111103916343344</v>
+        <v>0.05336867090535793</v>
       </c>
       <c r="G30">
-        <v>0.1211860383583881</v>
+        <v>0.2078856243115964</v>
       </c>
       <c r="H30">
-        <v>0.003347451234073864</v>
+        <v>0.005742303313770321</v>
       </c>
       <c r="I30">
-        <v>0.6618920820577404</v>
+        <v>1.135426576934155</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1243,28 +1243,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>0.4095111254944573</v>
+        <v>0.7024858402763958</v>
       </c>
       <c r="C31">
-        <v>0.004872959999999999</v>
+        <v>0.008359199999999999</v>
       </c>
       <c r="D31">
-        <v>0.03831659596703413</v>
+        <v>0.06572926701791747</v>
       </c>
       <c r="E31">
-        <v>0.02128313852785579</v>
+        <v>0.03650963922996539</v>
       </c>
       <c r="F31">
-        <v>0.04690587443102275</v>
+        <v>0.08046353459577046</v>
       </c>
       <c r="G31">
-        <v>0.1154152746270362</v>
+        <v>0.1979863088681873</v>
       </c>
       <c r="H31">
-        <v>0.01673725617036932</v>
+        <v>0.02871151656885162</v>
       </c>
       <c r="I31">
-        <v>0.6530422252177757</v>
+        <v>1.120245306557088</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1272,28 +1272,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>0.4635615069649989</v>
+        <v>0.7952052446607031</v>
       </c>
       <c r="C32">
-        <v>0.007038720000000001</v>
+        <v>0.0120744</v>
       </c>
       <c r="D32">
-        <v>0.0291206129349459</v>
+        <v>0.04995424293361737</v>
       </c>
       <c r="E32">
-        <v>0.02128313852785579</v>
+        <v>0.03650963922996539</v>
       </c>
       <c r="F32">
-        <v>0.03302556465041399</v>
+        <v>0.0566528968072261</v>
       </c>
       <c r="G32">
-        <v>0.1211860383583881</v>
+        <v>0.2078856243115964</v>
       </c>
       <c r="H32">
-        <v>0.01004235370222159</v>
+        <v>0.01722690994131097</v>
       </c>
       <c r="I32">
-        <v>0.6852579351388243</v>
+        <v>1.175508957884419</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1301,28 +1301,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>0.5029864910964531</v>
+        <v>0.862835869035139</v>
       </c>
       <c r="C33">
-        <v>0.004331520000000001</v>
+        <v>0.007430399999999997</v>
       </c>
       <c r="D33">
-        <v>0.05364323435384769</v>
+        <v>0.09202097382508448</v>
       </c>
       <c r="E33">
-        <v>0.05054745400365749</v>
+        <v>0.0867103931711678</v>
       </c>
       <c r="F33">
-        <v>0.0402050352265909</v>
+        <v>0.06896874393923177</v>
       </c>
       <c r="G33">
-        <v>0.07213454664189768</v>
+        <v>0.123741443042617</v>
       </c>
       <c r="H33">
-        <v>0.01673725617036932</v>
+        <v>0.02871151656885162</v>
       </c>
       <c r="I33">
-        <v>0.7405855374928162</v>
+        <v>1.270419339582091</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>0.6015489514250877</v>
+        <v>1.031912429971228</v>
       </c>
       <c r="C34">
-        <v>0.00595584</v>
+        <v>0.0102168</v>
       </c>
       <c r="D34">
-        <v>0.04904524283780361</v>
+        <v>0.08413346178293432</v>
       </c>
       <c r="E34">
-        <v>0.05852863095160338</v>
+        <v>0.1004015078824048</v>
       </c>
       <c r="F34">
-        <v>0.02728198818947241</v>
+        <v>0.04680021910162158</v>
       </c>
       <c r="G34">
-        <v>0.04616610985081453</v>
+        <v>0.07919452354727488</v>
       </c>
       <c r="H34">
-        <v>0.003347451234073864</v>
+        <v>0.005742303313770321</v>
       </c>
       <c r="I34">
-        <v>0.7918742144888554</v>
+        <v>1.358401245599234</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,25 +1359,25 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>0.633343293466583</v>
+        <v>1.086453256079643</v>
       </c>
       <c r="C35">
-        <v>0.00379008</v>
+        <v>0.006501599999999999</v>
       </c>
       <c r="D35">
-        <v>0.0352512682896713</v>
+        <v>0.06047092565648409</v>
       </c>
       <c r="E35">
-        <v>0.07183059253151323</v>
+        <v>0.1232200324011331</v>
       </c>
       <c r="F35">
-        <v>0.0143589411523539</v>
+        <v>0.02463169426401135</v>
       </c>
       <c r="G35">
-        <v>0.06347840104486993</v>
+        <v>0.108892469877503</v>
       </c>
       <c r="I35">
-        <v>0.8220525764849914</v>
+        <v>1.410169978278775</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1385,25 +1385,25 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>0.5913747619718096</v>
+        <v>1.014459365616535</v>
       </c>
       <c r="C36">
-        <v>0.002707199999999999</v>
+        <v>0.004644000000000001</v>
       </c>
       <c r="D36">
-        <v>0.03678393212835276</v>
+        <v>0.06310009633720076</v>
       </c>
       <c r="E36">
-        <v>0.05320784631963944</v>
+        <v>0.09127409807491346</v>
       </c>
       <c r="F36">
-        <v>0.02010251761329545</v>
+        <v>0.03448437196961589</v>
       </c>
       <c r="G36">
-        <v>0.09521760156730488</v>
+        <v>0.1633387048162545</v>
       </c>
       <c r="I36">
-        <v>0.7993938596004021</v>
+        <v>1.37130063681452</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1411,25 +1411,25 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.3662708203180237</v>
+        <v>0.62831031676895</v>
       </c>
       <c r="C37">
-        <v>0.00595584</v>
+        <v>0.0102168</v>
       </c>
       <c r="D37">
-        <v>0.03371860445098997</v>
+        <v>0.05784175497576741</v>
       </c>
       <c r="E37">
-        <v>0.06384941558356737</v>
+        <v>0.1095289176898962</v>
       </c>
       <c r="F37">
-        <v>0.0095726274349026</v>
+        <v>0.01642112950934091</v>
       </c>
       <c r="G37">
-        <v>0.09810298343298088</v>
+        <v>0.1682883625379591</v>
       </c>
       <c r="I37">
-        <v>0.5774702912204644</v>
+        <v>0.9906072814819136</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.314128099369972</v>
+        <v>0.5388633619511484</v>
       </c>
       <c r="C38">
-        <v>0.004872959999999999</v>
+        <v>0.008359199999999999</v>
       </c>
       <c r="D38">
-        <v>0.02758794909626453</v>
+        <v>0.04732507225290059</v>
       </c>
       <c r="E38">
-        <v>0.02660392315981972</v>
+        <v>0.04563704903745673</v>
       </c>
       <c r="F38">
-        <v>0.01292304703711851</v>
+        <v>0.02216852483761019</v>
       </c>
       <c r="G38">
-        <v>0.09521760156730488</v>
+        <v>0.1633387048162545</v>
       </c>
       <c r="I38">
-        <v>0.4813335802304797</v>
+        <v>0.8256919128953704</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,28 +1463,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.2181091864046564</v>
+        <v>0.3741500671037327</v>
       </c>
       <c r="C39">
-        <v>0.007580160000000001</v>
+        <v>0.0130032</v>
       </c>
       <c r="D39">
-        <v>0.01685930222549499</v>
+        <v>0.0289208774878837</v>
       </c>
       <c r="E39">
-        <v>0.03458510010776564</v>
+        <v>0.05932816374869375</v>
       </c>
       <c r="F39">
-        <v>0.00765810194792208</v>
+        <v>0.01313690360747271</v>
       </c>
       <c r="G39">
-        <v>0.07790531037324952</v>
+        <v>0.1336407584860262</v>
       </c>
       <c r="H39">
-        <v>0.003347451234073864</v>
+        <v>0.005742303313770321</v>
       </c>
       <c r="I39">
-        <v>0.3660446122931625</v>
+        <v>0.6279222737475795</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1492,25 +1492,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.1360797839375991</v>
+        <v>0.2334347357440197</v>
       </c>
       <c r="C40">
-        <v>0.004872959999999999</v>
+        <v>0.008359199999999999</v>
       </c>
       <c r="D40">
-        <v>0.006130655354725452</v>
+        <v>0.01051668272286679</v>
       </c>
       <c r="E40">
-        <v>0.0186227462118738</v>
+        <v>0.0319459343262197</v>
       </c>
       <c r="F40">
-        <v>0.007179470576176949</v>
+        <v>0.01231584713200568</v>
       </c>
       <c r="G40">
-        <v>0.0375099642537868</v>
+        <v>0.06434555038216085</v>
       </c>
       <c r="I40">
-        <v>0.2103955803341622</v>
+        <v>0.3609179503072726</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1518,25 +1518,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.07312698669543877</v>
+        <v>0.1254439000493564</v>
       </c>
       <c r="C41">
-        <v>0.007580160000000001</v>
+        <v>0.0130032</v>
       </c>
       <c r="D41">
-        <v>0.006130655354725452</v>
+        <v>0.01051668272286679</v>
       </c>
       <c r="E41">
-        <v>0.01330196157990986</v>
+        <v>0.02281852451872837</v>
       </c>
       <c r="F41">
-        <v>0.00765810194792208</v>
+        <v>0.01313690360747271</v>
       </c>
       <c r="G41">
-        <v>0.04328072798513857</v>
+        <v>0.07424486582557022</v>
       </c>
       <c r="I41">
-        <v>0.1510785935631347</v>
+        <v>0.2591640767239946</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1544,25 +1544,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.04260441833560349</v>
+        <v>0.07308470698527721</v>
       </c>
       <c r="C42">
-        <v>0.004331520000000001</v>
+        <v>0.007430399999999997</v>
       </c>
       <c r="D42">
-        <v>0.004597991516044096</v>
+        <v>0.007887512042150095</v>
       </c>
       <c r="E42">
-        <v>0.01064156926392789</v>
+        <v>0.0182548196149827</v>
       </c>
       <c r="F42">
-        <v>0.007179470576176949</v>
+        <v>0.01231584713200568</v>
       </c>
       <c r="G42">
-        <v>0.02885381865675905</v>
+        <v>0.04949657721704682</v>
       </c>
       <c r="I42">
-        <v>0.09820878834851147</v>
+        <v>0.1684698629914625</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1570,22 +1570,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.03243022888232504</v>
+        <v>0.05563164263058417</v>
       </c>
       <c r="C43">
-        <v>0.003248640000000001</v>
+        <v>0.0055728</v>
       </c>
       <c r="D43">
-        <v>0.003065327677362726</v>
+        <v>0.005258341361433395</v>
       </c>
       <c r="F43">
-        <v>0.0047863137174513</v>
+        <v>0.008210564754670455</v>
       </c>
       <c r="G43">
-        <v>0.05193687358216634</v>
+        <v>0.08909383899068427</v>
       </c>
       <c r="I43">
-        <v>0.09546738385930542</v>
+        <v>0.1637671877373723</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,25 +1593,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.0247995867923662</v>
+        <v>0.04254184436456437</v>
       </c>
       <c r="C44">
-        <v>0.001624320000000001</v>
+        <v>0.0027864</v>
       </c>
       <c r="D44">
-        <v>0.003065327677362726</v>
+        <v>0.005258341361433395</v>
       </c>
       <c r="E44">
-        <v>0.002660392315981973</v>
+        <v>0.004563704903745674</v>
       </c>
       <c r="F44">
-        <v>0.00765810194792208</v>
+        <v>0.01313690360747271</v>
       </c>
       <c r="G44">
-        <v>0.06636378291054586</v>
+        <v>0.1138421275992077</v>
       </c>
       <c r="I44">
-        <v>0.1061715116441788</v>
+        <v>0.1821293218364239</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1619,25 +1619,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.07503464721792846</v>
+        <v>0.1287163496158613</v>
       </c>
       <c r="C45">
-        <v>0.002707199999999999</v>
+        <v>0.004644000000000001</v>
       </c>
       <c r="D45">
-        <v>0.0122613107094509</v>
+        <v>0.02103336544573358</v>
       </c>
       <c r="E45">
-        <v>0.01330196157990986</v>
+        <v>0.02281852451872837</v>
       </c>
       <c r="F45">
-        <v>0.009093996063157469</v>
+        <v>0.01560007303387385</v>
       </c>
       <c r="G45">
-        <v>0.1096445108956844</v>
+        <v>0.1880869934247779</v>
       </c>
       <c r="I45">
-        <v>0.2220436264661311</v>
+        <v>0.380899306038975</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1645,25 +1645,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.1329003497334496</v>
+        <v>0.2279806531331784</v>
       </c>
       <c r="D46">
-        <v>0.03065327677362728</v>
+        <v>0.05258341361433402</v>
       </c>
       <c r="E46">
-        <v>0.03192470779178368</v>
+        <v>0.05476445884494808</v>
       </c>
       <c r="F46">
-        <v>0.01579483526758929</v>
+        <v>0.02709486369041249</v>
       </c>
       <c r="G46">
-        <v>0.2394866948511002</v>
+        <v>0.4108215909014887</v>
       </c>
       <c r="H46">
-        <v>0.01004235370222159</v>
+        <v>0.01722690994131097</v>
       </c>
       <c r="I46">
-        <v>0.4608022181197717</v>
+        <v>0.7904718901256726</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1671,28 +1671,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.3923421807920499</v>
+        <v>0.6730337941778523</v>
       </c>
       <c r="C47">
-        <v>0.004331520000000001</v>
+        <v>0.007430399999999997</v>
       </c>
       <c r="D47">
-        <v>0.0352512682896713</v>
+        <v>0.06047092565648409</v>
       </c>
       <c r="E47">
-        <v>0.09045333874338707</v>
+        <v>0.1551659667273528</v>
       </c>
       <c r="F47">
-        <v>0.03398282739390422</v>
+        <v>0.05829500975816022</v>
       </c>
       <c r="G47">
-        <v>0.245257458582452</v>
+        <v>0.4207209063448978</v>
       </c>
       <c r="H47">
-        <v>0.006694902468147728</v>
+        <v>0.01148460662754064</v>
       </c>
       <c r="I47">
-        <v>0.8083134962696124</v>
+        <v>1.386601609292288</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1700,28 +1700,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>0.4686486016916386</v>
+        <v>0.803931776838049</v>
       </c>
       <c r="C48">
-        <v>0.0081216</v>
+        <v>0.01393199999999999</v>
       </c>
       <c r="D48">
-        <v>0.02298995758022045</v>
+        <v>0.03943756021075052</v>
       </c>
       <c r="E48">
-        <v>0.05852863095160338</v>
+        <v>0.1004015078824048</v>
       </c>
       <c r="F48">
-        <v>0.03111103916343344</v>
+        <v>0.05336867090535793</v>
       </c>
       <c r="G48">
-        <v>0.1817790575375821</v>
+        <v>0.3118284364673949</v>
       </c>
       <c r="H48">
-        <v>0.01673725617036932</v>
+        <v>0.02871151656885162</v>
       </c>
       <c r="I48">
-        <v>0.7879161430948474</v>
+        <v>1.351611468872809</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1729,28 +1729,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>0.5958259698576192</v>
+        <v>1.022095081271713</v>
       </c>
       <c r="C49">
-        <v>0.002165760000000001</v>
+        <v>0.003715199999999998</v>
       </c>
       <c r="D49">
-        <v>0.04291458748307816</v>
+        <v>0.07361677906006758</v>
       </c>
       <c r="E49">
-        <v>0.05320784631963944</v>
+        <v>0.09127409807491346</v>
       </c>
       <c r="F49">
-        <v>0.02823925093296266</v>
+        <v>0.04844233205255563</v>
       </c>
       <c r="G49">
-        <v>0.1644667663435267</v>
+        <v>0.282130490137167</v>
       </c>
       <c r="H49">
-        <v>0.003347451234073864</v>
+        <v>0.005742303313770321</v>
       </c>
       <c r="I49">
-        <v>0.8901676321709</v>
+        <v>1.527016283910187</v>
       </c>
     </row>
   </sheetData>
